--- a/6/cfrp1/danmen=50/6_cfrp1_danmen=50_SS.xlsx
+++ b/6/cfrp1/danmen=50/6_cfrp1_danmen=50_SS.xlsx
@@ -8,11 +8,10 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="まとめ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6_c1_dan50_cft1000" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6_c1_dan50_cft700" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6_c1_dan50_cft800" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6_c1_dan50_cft900" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6_c1_dan50_cft970" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6_c1_dan50_cft700" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6_c1_dan50_cft800" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6_c1_dan50_cft900" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6_c1_dan50_cft970" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -153,342 +152,6 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>6_c1_dan50_cft1000</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'6_c1_dan50_cft1000'!$C$2:$C$101</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'6_c1_dan50_cft1000'!$D$2:$D$101</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Strain [-]</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Stress [MPa]</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>10%</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'6_c1_dan50_cft970'!$C$2:$C$9</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'6_c1_dan50_cft970'!$D$2:$D$9</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Strain [-]</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Stress [MPa]</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>10%</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'6_c1_dan50_cft1000'!$C$2:$C$9</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'6_c1_dan50_cft1000'!$D$2:$D$9</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Strain [-]</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Stress [MPa]</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
               <a:t>6_c1_dan50_cft700</a:t>
             </a:r>
           </a:p>
@@ -589,7 +252,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -701,7 +364,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -813,7 +476,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -925,7 +588,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -1037,7 +700,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -1149,7 +812,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -1193,6 +856,118 @@
           <yVal>
             <numRef>
               <f>'6_c1_dan50_cft970'!$D$2:$D$101</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Strain [-]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Stress [MPa]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>10%</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'6_c1_dan50_cft970'!$C$2:$C$9</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'6_c1_dan50_cft970'!$D$2:$D$9</f>
             </numRef>
           </yVal>
         </ser>
@@ -1409,55 +1184,6 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>4</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>22</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -1813,7 +1539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1841,66 +1567,53 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6_c1_dan50_cft1000</t>
+          <t>6_c1_dan50_cft700</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29.3424</v>
+        <v>38.26</v>
       </c>
       <c r="C2" t="n">
-        <v>1745.563888888889</v>
+        <v>2898.476666666666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6_c1_dan50_cft700</t>
+          <t>6_c1_dan50_cft800</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.0414</v>
+        <v>43.4772</v>
       </c>
       <c r="C3" t="n">
-        <v>1745.563888888889</v>
+        <v>2898.476666666666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6_c1_dan50_cft800</t>
+          <t>6_c1_dan50_cft900</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.1834</v>
+        <v>48.556</v>
       </c>
       <c r="C4" t="n">
-        <v>1745.563888888889</v>
+        <v>2898.476666666666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6_c1_dan50_cft900</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>29.2686</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1745.563888888889</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
           <t>6_c1_dan50_cft970</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>29.3424</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1745.563888888889</v>
+      <c r="B5" t="n">
+        <v>48.86859999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2898.476666666666</v>
       </c>
     </row>
   </sheetData>
@@ -1945,7 +1658,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>6\cfrp1\danmen=50\cf_tensile=1000\6_c1_dan50_cft1000.csv</t>
+          <t>6\cfrp1\danmen=50\cf_tensile=700\6_c1_dan50_cft700.csv</t>
         </is>
       </c>
     </row>
@@ -1954,13 +1667,13 @@
         <v>0.03</v>
       </c>
       <c r="B2" t="n">
-        <v>26.1835</v>
+        <v>43.4772</v>
       </c>
       <c r="C2" t="n">
         <v>0.0003</v>
       </c>
       <c r="D2" t="n">
-        <v>0.52367</v>
+        <v>0.8695440000000001</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -1968,7 +1681,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>29.3424</v>
+        <v>38.26</v>
       </c>
     </row>
     <row r="3">
@@ -1976,13 +1689,13 @@
         <v>0.06</v>
       </c>
       <c r="B3" t="n">
-        <v>52.3669</v>
+        <v>86.95440000000001</v>
       </c>
       <c r="C3" t="n">
         <v>0.0005999999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>1.047338</v>
+        <v>1.739088</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1990,7 +1703,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1745.563888888889</v>
+        <v>2898.476666666666</v>
       </c>
     </row>
     <row r="4">
@@ -1998,13 +1711,13 @@
         <v>0.09</v>
       </c>
       <c r="B4" t="n">
-        <v>78.5504</v>
+        <v>130.432</v>
       </c>
       <c r="C4" t="n">
         <v>0.0008999999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>1.571008</v>
+        <v>2.60864</v>
       </c>
     </row>
     <row r="5">
@@ -2012,13 +1725,13 @@
         <v>0.12</v>
       </c>
       <c r="B5" t="n">
-        <v>104.734</v>
+        <v>173.909</v>
       </c>
       <c r="C5" t="n">
         <v>0.0012</v>
       </c>
       <c r="D5" t="n">
-        <v>2.09468</v>
+        <v>3.47818</v>
       </c>
     </row>
     <row r="6">
@@ -2026,13 +1739,13 @@
         <v>0.15</v>
       </c>
       <c r="B6" t="n">
-        <v>130.917</v>
+        <v>217.386</v>
       </c>
       <c r="C6" t="n">
         <v>0.0015</v>
       </c>
       <c r="D6" t="n">
-        <v>2.61834</v>
+        <v>4.34772</v>
       </c>
     </row>
     <row r="7">
@@ -2040,13 +1753,13 @@
         <v>0.18</v>
       </c>
       <c r="B7" t="n">
-        <v>157.101</v>
+        <v>260.863</v>
       </c>
       <c r="C7" t="n">
         <v>0.0018</v>
       </c>
       <c r="D7" t="n">
-        <v>3.14202</v>
+        <v>5.21726</v>
       </c>
     </row>
     <row r="8">
@@ -2054,13 +1767,13 @@
         <v>0.21</v>
       </c>
       <c r="B8" t="n">
-        <v>183.284</v>
+        <v>304.34</v>
       </c>
       <c r="C8" t="n">
         <v>0.0021</v>
       </c>
       <c r="D8" t="n">
-        <v>3.66568</v>
+        <v>6.086799999999999</v>
       </c>
     </row>
     <row r="9">
@@ -2068,13 +1781,13 @@
         <v>0.24</v>
       </c>
       <c r="B9" t="n">
-        <v>209.468</v>
+        <v>347.817</v>
       </c>
       <c r="C9" t="n">
         <v>0.0024</v>
       </c>
       <c r="D9" t="n">
-        <v>4.18936</v>
+        <v>6.95634</v>
       </c>
     </row>
     <row r="10">
@@ -2082,13 +1795,13 @@
         <v>0.27</v>
       </c>
       <c r="B10" t="n">
-        <v>235.651</v>
+        <v>391.295</v>
       </c>
       <c r="C10" t="n">
         <v>0.0027</v>
       </c>
       <c r="D10" t="n">
-        <v>4.71302</v>
+        <v>7.825900000000001</v>
       </c>
     </row>
     <row r="11">
@@ -2096,13 +1809,13 @@
         <v>0.3</v>
       </c>
       <c r="B11" t="n">
-        <v>261.835</v>
+        <v>434.772</v>
       </c>
       <c r="C11" t="n">
         <v>0.003</v>
       </c>
       <c r="D11" t="n">
-        <v>5.2367</v>
+        <v>8.69544</v>
       </c>
     </row>
     <row r="12">
@@ -2110,13 +1823,13 @@
         <v>0.33</v>
       </c>
       <c r="B12" t="n">
-        <v>288.018</v>
+        <v>478.249</v>
       </c>
       <c r="C12" t="n">
         <v>0.0033</v>
       </c>
       <c r="D12" t="n">
-        <v>5.760359999999999</v>
+        <v>9.56498</v>
       </c>
     </row>
     <row r="13">
@@ -2124,13 +1837,13 @@
         <v>0.36</v>
       </c>
       <c r="B13" t="n">
-        <v>314.202</v>
+        <v>521.726</v>
       </c>
       <c r="C13" t="n">
         <v>0.003599999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>6.28404</v>
+        <v>10.43452</v>
       </c>
     </row>
     <row r="14">
@@ -2138,13 +1851,13 @@
         <v>0.39</v>
       </c>
       <c r="B14" t="n">
-        <v>340.385</v>
+        <v>565.203</v>
       </c>
       <c r="C14" t="n">
         <v>0.0039</v>
       </c>
       <c r="D14" t="n">
-        <v>6.8077</v>
+        <v>11.30406</v>
       </c>
     </row>
     <row r="15">
@@ -2152,13 +1865,13 @@
         <v>0.42</v>
       </c>
       <c r="B15" t="n">
-        <v>366.568</v>
+        <v>608.681</v>
       </c>
       <c r="C15" t="n">
         <v>0.0042</v>
       </c>
       <c r="D15" t="n">
-        <v>7.33136</v>
+        <v>12.17362</v>
       </c>
     </row>
     <row r="16">
@@ -2166,13 +1879,13 @@
         <v>0.45</v>
       </c>
       <c r="B16" t="n">
-        <v>392.752</v>
+        <v>652.158</v>
       </c>
       <c r="C16" t="n">
         <v>0.004500000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>7.85504</v>
+        <v>13.04316</v>
       </c>
     </row>
     <row r="17">
@@ -2180,13 +1893,13 @@
         <v>0.48</v>
       </c>
       <c r="B17" t="n">
-        <v>418.935</v>
+        <v>695.635</v>
       </c>
       <c r="C17" t="n">
         <v>0.0048</v>
       </c>
       <c r="D17" t="n">
-        <v>8.3787</v>
+        <v>13.9127</v>
       </c>
     </row>
     <row r="18">
@@ -2194,13 +1907,13 @@
         <v>0.51</v>
       </c>
       <c r="B18" t="n">
-        <v>445.119</v>
+        <v>739.112</v>
       </c>
       <c r="C18" t="n">
         <v>0.0051</v>
       </c>
       <c r="D18" t="n">
-        <v>8.902380000000001</v>
+        <v>14.78224</v>
       </c>
     </row>
     <row r="19">
@@ -2208,13 +1921,13 @@
         <v>0.54</v>
       </c>
       <c r="B19" t="n">
-        <v>471.302</v>
+        <v>782.5890000000001</v>
       </c>
       <c r="C19" t="n">
         <v>0.005399999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>9.42604</v>
+        <v>15.65178</v>
       </c>
     </row>
     <row r="20">
@@ -2222,13 +1935,13 @@
         <v>0.57</v>
       </c>
       <c r="B20" t="n">
-        <v>497.486</v>
+        <v>826.067</v>
       </c>
       <c r="C20" t="n">
         <v>0.005699999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>9.949719999999999</v>
+        <v>16.52134</v>
       </c>
     </row>
     <row r="21">
@@ -2236,13 +1949,13 @@
         <v>0.6</v>
       </c>
       <c r="B21" t="n">
-        <v>523.669</v>
+        <v>869.544</v>
       </c>
       <c r="C21" t="n">
         <v>0.005999999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>10.47338</v>
+        <v>17.39088</v>
       </c>
     </row>
     <row r="22">
@@ -2250,13 +1963,13 @@
         <v>0.63</v>
       </c>
       <c r="B22" t="n">
-        <v>549.853</v>
+        <v>913.021</v>
       </c>
       <c r="C22" t="n">
         <v>0.0063</v>
       </c>
       <c r="D22" t="n">
-        <v>10.99706</v>
+        <v>18.26042</v>
       </c>
     </row>
     <row r="23">
@@ -2264,13 +1977,13 @@
         <v>0.66</v>
       </c>
       <c r="B23" t="n">
-        <v>576.0359999999999</v>
+        <v>956.498</v>
       </c>
       <c r="C23" t="n">
         <v>0.0066</v>
       </c>
       <c r="D23" t="n">
-        <v>11.52072</v>
+        <v>19.12996</v>
       </c>
     </row>
     <row r="24">
@@ -2278,13 +1991,13 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>602.22</v>
+        <v>999.975</v>
       </c>
       <c r="C24" t="n">
         <v>0.006899999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>12.0444</v>
+        <v>19.9995</v>
       </c>
     </row>
     <row r="25">
@@ -2292,13 +2005,13 @@
         <v>0.72</v>
       </c>
       <c r="B25" t="n">
-        <v>628.403</v>
+        <v>1043.45</v>
       </c>
       <c r="C25" t="n">
         <v>0.007199999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>12.56806</v>
+        <v>20.869</v>
       </c>
     </row>
     <row r="26">
@@ -2306,13 +2019,13 @@
         <v>0.75</v>
       </c>
       <c r="B26" t="n">
-        <v>654.587</v>
+        <v>1086.93</v>
       </c>
       <c r="C26" t="n">
         <v>0.0075</v>
       </c>
       <c r="D26" t="n">
-        <v>13.09174</v>
+        <v>21.7386</v>
       </c>
     </row>
     <row r="27">
@@ -2320,13 +2033,13 @@
         <v>0.78</v>
       </c>
       <c r="B27" t="n">
-        <v>680.77</v>
+        <v>1130.41</v>
       </c>
       <c r="C27" t="n">
         <v>0.007800000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>13.6154</v>
+        <v>22.6082</v>
       </c>
     </row>
     <row r="28">
@@ -2334,13 +2047,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B28" t="n">
-        <v>706.954</v>
+        <v>1173.88</v>
       </c>
       <c r="C28" t="n">
         <v>0.0081</v>
       </c>
       <c r="D28" t="n">
-        <v>14.13908</v>
+        <v>23.4776</v>
       </c>
     </row>
     <row r="29">
@@ -2348,13 +2061,13 @@
         <v>0.84</v>
       </c>
       <c r="B29" t="n">
-        <v>733.1369999999999</v>
+        <v>1217.36</v>
       </c>
       <c r="C29" t="n">
         <v>0.008399999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>14.66274</v>
+        <v>24.3472</v>
       </c>
     </row>
     <row r="30">
@@ -2362,13 +2075,13 @@
         <v>0.87</v>
       </c>
       <c r="B30" t="n">
-        <v>759.3200000000001</v>
+        <v>1260.84</v>
       </c>
       <c r="C30" t="n">
         <v>0.008699999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>15.1864</v>
+        <v>25.2168</v>
       </c>
     </row>
     <row r="31">
@@ -2376,13 +2089,13 @@
         <v>0.9</v>
       </c>
       <c r="B31" t="n">
-        <v>785.504</v>
+        <v>1304.32</v>
       </c>
       <c r="C31" t="n">
         <v>0.009000000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>15.71008</v>
+        <v>26.0864</v>
       </c>
     </row>
     <row r="32">
@@ -2390,13 +2103,13 @@
         <v>0.93</v>
       </c>
       <c r="B32" t="n">
-        <v>811.687</v>
+        <v>1347.79</v>
       </c>
       <c r="C32" t="n">
         <v>0.009299999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>16.23374</v>
+        <v>26.9558</v>
       </c>
     </row>
     <row r="33">
@@ -2404,13 +2117,13 @@
         <v>0.96</v>
       </c>
       <c r="B33" t="n">
-        <v>837.871</v>
+        <v>1391.27</v>
       </c>
       <c r="C33" t="n">
         <v>0.009599999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>16.75742</v>
+        <v>27.8254</v>
       </c>
     </row>
     <row r="34">
@@ -2418,13 +2131,13 @@
         <v>0.99</v>
       </c>
       <c r="B34" t="n">
-        <v>864.054</v>
+        <v>1434.75</v>
       </c>
       <c r="C34" t="n">
         <v>0.009899999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>17.28108</v>
+        <v>28.695</v>
       </c>
     </row>
     <row r="35">
@@ -2432,13 +2145,13 @@
         <v>1.02</v>
       </c>
       <c r="B35" t="n">
-        <v>890.2380000000001</v>
+        <v>1478.22</v>
       </c>
       <c r="C35" t="n">
         <v>0.0102</v>
       </c>
       <c r="D35" t="n">
-        <v>17.80476</v>
+        <v>29.5644</v>
       </c>
     </row>
     <row r="36">
@@ -2446,13 +2159,13 @@
         <v>1.05</v>
       </c>
       <c r="B36" t="n">
-        <v>916.421</v>
+        <v>1521.7</v>
       </c>
       <c r="C36" t="n">
         <v>0.0105</v>
       </c>
       <c r="D36" t="n">
-        <v>18.32842</v>
+        <v>30.434</v>
       </c>
     </row>
     <row r="37">
@@ -2460,13 +2173,13 @@
         <v>1.08</v>
       </c>
       <c r="B37" t="n">
-        <v>942.605</v>
+        <v>1565.18</v>
       </c>
       <c r="C37" t="n">
         <v>0.0108</v>
       </c>
       <c r="D37" t="n">
-        <v>18.8521</v>
+        <v>31.3036</v>
       </c>
     </row>
     <row r="38">
@@ -2474,13 +2187,13 @@
         <v>1.11</v>
       </c>
       <c r="B38" t="n">
-        <v>968.788</v>
+        <v>1608.66</v>
       </c>
       <c r="C38" t="n">
         <v>0.0111</v>
       </c>
       <c r="D38" t="n">
-        <v>19.37576</v>
+        <v>32.1732</v>
       </c>
     </row>
     <row r="39">
@@ -2488,13 +2201,13 @@
         <v>1.14</v>
       </c>
       <c r="B39" t="n">
-        <v>994.972</v>
+        <v>1652.13</v>
       </c>
       <c r="C39" t="n">
         <v>0.0114</v>
       </c>
       <c r="D39" t="n">
-        <v>19.89944</v>
+        <v>33.0426</v>
       </c>
     </row>
     <row r="40">
@@ -2502,13 +2215,13 @@
         <v>1.17</v>
       </c>
       <c r="B40" t="n">
-        <v>1021.16</v>
+        <v>1695.61</v>
       </c>
       <c r="C40" t="n">
         <v>0.0117</v>
       </c>
       <c r="D40" t="n">
-        <v>20.4232</v>
+        <v>33.9122</v>
       </c>
     </row>
     <row r="41">
@@ -2516,13 +2229,13 @@
         <v>1.2</v>
       </c>
       <c r="B41" t="n">
-        <v>1047.34</v>
+        <v>1739.09</v>
       </c>
       <c r="C41" t="n">
         <v>0.012</v>
       </c>
       <c r="D41" t="n">
-        <v>20.9468</v>
+        <v>34.7818</v>
       </c>
     </row>
     <row r="42">
@@ -2530,13 +2243,13 @@
         <v>1.23</v>
       </c>
       <c r="B42" t="n">
-        <v>1073.52</v>
+        <v>1782.56</v>
       </c>
       <c r="C42" t="n">
         <v>0.0123</v>
       </c>
       <c r="D42" t="n">
-        <v>21.4704</v>
+        <v>35.6512</v>
       </c>
     </row>
     <row r="43">
@@ -2544,13 +2257,13 @@
         <v>1.26</v>
       </c>
       <c r="B43" t="n">
-        <v>1099.71</v>
+        <v>1826.04</v>
       </c>
       <c r="C43" t="n">
         <v>0.0126</v>
       </c>
       <c r="D43" t="n">
-        <v>21.9942</v>
+        <v>36.5208</v>
       </c>
     </row>
     <row r="44">
@@ -2558,13 +2271,13 @@
         <v>1.29</v>
       </c>
       <c r="B44" t="n">
-        <v>1125.89</v>
+        <v>1869.52</v>
       </c>
       <c r="C44" t="n">
         <v>0.0129</v>
       </c>
       <c r="D44" t="n">
-        <v>22.5178</v>
+        <v>37.3904</v>
       </c>
     </row>
     <row r="45">
@@ -2572,13 +2285,13 @@
         <v>1.32</v>
       </c>
       <c r="B45" t="n">
-        <v>1152.07</v>
+        <v>1913</v>
       </c>
       <c r="C45" t="n">
         <v>0.0132</v>
       </c>
       <c r="D45" t="n">
-        <v>23.0414</v>
+        <v>38.26</v>
       </c>
     </row>
     <row r="46">
@@ -2586,13 +2299,13 @@
         <v>1.35</v>
       </c>
       <c r="B46" t="n">
-        <v>1178.26</v>
+        <v>743.752</v>
       </c>
       <c r="C46" t="n">
         <v>0.0135</v>
       </c>
       <c r="D46" t="n">
-        <v>23.5652</v>
+        <v>14.87504</v>
       </c>
     </row>
     <row r="47">
@@ -2600,13 +2313,13 @@
         <v>1.38</v>
       </c>
       <c r="B47" t="n">
-        <v>1204.44</v>
+        <v>760.28</v>
       </c>
       <c r="C47" t="n">
         <v>0.0138</v>
       </c>
       <c r="D47" t="n">
-        <v>24.0888</v>
+        <v>15.2056</v>
       </c>
     </row>
     <row r="48">
@@ -2614,13 +2327,13 @@
         <v>1.41</v>
       </c>
       <c r="B48" t="n">
-        <v>1230.62</v>
+        <v>776.808</v>
       </c>
       <c r="C48" t="n">
         <v>0.0141</v>
       </c>
       <c r="D48" t="n">
-        <v>24.6124</v>
+        <v>15.53616</v>
       </c>
     </row>
     <row r="49">
@@ -2628,13 +2341,13 @@
         <v>1.44</v>
       </c>
       <c r="B49" t="n">
-        <v>1256.81</v>
+        <v>793.336</v>
       </c>
       <c r="C49" t="n">
         <v>0.0144</v>
       </c>
       <c r="D49" t="n">
-        <v>25.1362</v>
+        <v>15.86672</v>
       </c>
     </row>
     <row r="50">
@@ -2642,13 +2355,13 @@
         <v>1.47</v>
       </c>
       <c r="B50" t="n">
-        <v>1282.99</v>
+        <v>809.864</v>
       </c>
       <c r="C50" t="n">
         <v>0.0147</v>
       </c>
       <c r="D50" t="n">
-        <v>25.6598</v>
+        <v>16.19728</v>
       </c>
     </row>
     <row r="51">
@@ -2656,13 +2369,13 @@
         <v>1.5</v>
       </c>
       <c r="B51" t="n">
-        <v>1309.17</v>
+        <v>826.3920000000001</v>
       </c>
       <c r="C51" t="n">
         <v>0.015</v>
       </c>
       <c r="D51" t="n">
-        <v>26.1834</v>
+        <v>16.52784</v>
       </c>
     </row>
     <row r="52">
@@ -2670,13 +2383,13 @@
         <v>1.53</v>
       </c>
       <c r="B52" t="n">
-        <v>1335.36</v>
+        <v>842.919</v>
       </c>
       <c r="C52" t="n">
         <v>0.0153</v>
       </c>
       <c r="D52" t="n">
-        <v>26.7072</v>
+        <v>16.85838</v>
       </c>
     </row>
     <row r="53">
@@ -2684,13 +2397,13 @@
         <v>1.56</v>
       </c>
       <c r="B53" t="n">
-        <v>1361.54</v>
+        <v>859.447</v>
       </c>
       <c r="C53" t="n">
         <v>0.0156</v>
       </c>
       <c r="D53" t="n">
-        <v>27.2308</v>
+        <v>17.18894</v>
       </c>
     </row>
     <row r="54">
@@ -2698,13 +2411,13 @@
         <v>1.59</v>
       </c>
       <c r="B54" t="n">
-        <v>1387.72</v>
+        <v>875.975</v>
       </c>
       <c r="C54" t="n">
         <v>0.0159</v>
       </c>
       <c r="D54" t="n">
-        <v>27.7544</v>
+        <v>17.5195</v>
       </c>
     </row>
     <row r="55">
@@ -2712,13 +2425,13 @@
         <v>1.62</v>
       </c>
       <c r="B55" t="n">
-        <v>1413.87</v>
+        <v>892.503</v>
       </c>
       <c r="C55" t="n">
         <v>0.0162</v>
       </c>
       <c r="D55" t="n">
-        <v>28.2774</v>
+        <v>17.85006</v>
       </c>
     </row>
     <row r="56">
@@ -2726,13 +2439,13 @@
         <v>1.65</v>
       </c>
       <c r="B56" t="n">
-        <v>1439.66</v>
+        <v>908.848</v>
       </c>
       <c r="C56" t="n">
         <v>0.0165</v>
       </c>
       <c r="D56" t="n">
-        <v>28.7932</v>
+        <v>18.17696</v>
       </c>
     </row>
     <row r="57">
@@ -2740,13 +2453,13 @@
         <v>1.68</v>
       </c>
       <c r="B57" t="n">
-        <v>1463.43</v>
+        <v>922.585</v>
       </c>
       <c r="C57" t="n">
         <v>0.0168</v>
       </c>
       <c r="D57" t="n">
-        <v>29.2686</v>
+        <v>18.4517</v>
       </c>
     </row>
     <row r="58">
@@ -2754,13 +2467,13 @@
         <v>1.71</v>
       </c>
       <c r="B58" t="n">
-        <v>1467.12</v>
+        <v>922.54</v>
       </c>
       <c r="C58" t="n">
         <v>0.0171</v>
       </c>
       <c r="D58" t="n">
-        <v>29.3424</v>
+        <v>18.4508</v>
       </c>
     </row>
     <row r="59">
@@ -2768,13 +2481,13 @@
         <v>1.74</v>
       </c>
       <c r="B59" t="n">
-        <v>1335.03</v>
+        <v>645.633</v>
       </c>
       <c r="C59" t="n">
         <v>0.0174</v>
       </c>
       <c r="D59" t="n">
-        <v>26.7006</v>
+        <v>12.91266</v>
       </c>
     </row>
     <row r="60">
@@ -2782,13 +2495,13 @@
         <v>1.77</v>
       </c>
       <c r="B60" t="n">
-        <v>738.7190000000001</v>
+        <v>0.670689</v>
       </c>
       <c r="C60" t="n">
         <v>0.0177</v>
       </c>
       <c r="D60" t="n">
-        <v>14.77438</v>
+        <v>0.01341378</v>
       </c>
     </row>
     <row r="61">
@@ -2796,13 +2509,13 @@
         <v>1.8</v>
       </c>
       <c r="B61" t="n">
-        <v>284.899</v>
+        <v>0.460105</v>
       </c>
       <c r="C61" t="n">
         <v>0.018</v>
       </c>
       <c r="D61" t="n">
-        <v>5.69798</v>
+        <v>0.0092021</v>
       </c>
     </row>
     <row r="62">
@@ -2810,13 +2523,13 @@
         <v>1.83</v>
       </c>
       <c r="B62" t="n">
-        <v>56.4025</v>
+        <v>0.42659</v>
       </c>
       <c r="C62" t="n">
         <v>0.0183</v>
       </c>
       <c r="D62" t="n">
-        <v>1.12805</v>
+        <v>0.008531800000000001</v>
       </c>
     </row>
     <row r="63">
@@ -2824,13 +2537,13 @@
         <v>1.86</v>
       </c>
       <c r="B63" t="n">
-        <v>0.35399</v>
+        <v>0.417625</v>
       </c>
       <c r="C63" t="n">
         <v>0.0186</v>
       </c>
       <c r="D63" t="n">
-        <v>0.007079800000000001</v>
+        <v>0.008352500000000001</v>
       </c>
     </row>
     <row r="64">
@@ -2838,13 +2551,13 @@
         <v>1.89</v>
       </c>
       <c r="B64" t="n">
-        <v>0.22795</v>
+        <v>0.421783</v>
       </c>
       <c r="C64" t="n">
         <v>0.0189</v>
       </c>
       <c r="D64" t="n">
-        <v>0.004559000000000001</v>
+        <v>0.008435660000000001</v>
       </c>
     </row>
     <row r="65">
@@ -2852,13 +2565,13 @@
         <v>1.92</v>
       </c>
       <c r="B65" t="n">
-        <v>0.186411</v>
+        <v>0.427998</v>
       </c>
       <c r="C65" t="n">
         <v>0.0192</v>
       </c>
       <c r="D65" t="n">
-        <v>0.00372822</v>
+        <v>0.00855996</v>
       </c>
     </row>
     <row r="66">
@@ -2866,13 +2579,13 @@
         <v>1.95</v>
       </c>
       <c r="B66" t="n">
-        <v>0.18588</v>
+        <v>0.434367</v>
       </c>
       <c r="C66" t="n">
         <v>0.0195</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0037176</v>
+        <v>0.00868734</v>
       </c>
     </row>
     <row r="67">
@@ -2880,13 +2593,13 @@
         <v>1.98</v>
       </c>
       <c r="B67" t="n">
-        <v>0.187895</v>
+        <v>0.440673</v>
       </c>
       <c r="C67" t="n">
         <v>0.0198</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0037579</v>
+        <v>0.00881346</v>
       </c>
     </row>
     <row r="68">
@@ -2894,13 +2607,13 @@
         <v>2.01</v>
       </c>
       <c r="B68" t="n">
-        <v>0.190493</v>
+        <v>0.446971</v>
       </c>
       <c r="C68" t="n">
         <v>0.0201</v>
       </c>
       <c r="D68" t="n">
-        <v>0.00380986</v>
+        <v>0.00893942</v>
       </c>
     </row>
     <row r="69">
@@ -2908,13 +2621,13 @@
         <v>2.04</v>
       </c>
       <c r="B69" t="n">
-        <v>0.193323</v>
+        <v>0.453304</v>
       </c>
       <c r="C69" t="n">
         <v>0.0204</v>
       </c>
       <c r="D69" t="n">
-        <v>0.00386646</v>
+        <v>0.009066079999999999</v>
       </c>
     </row>
     <row r="70">
@@ -2922,13 +2635,13 @@
         <v>2.07</v>
       </c>
       <c r="B70" t="n">
-        <v>0.196166</v>
+        <v>0.459829</v>
       </c>
       <c r="C70" t="n">
         <v>0.0207</v>
       </c>
       <c r="D70" t="n">
-        <v>0.00392332</v>
+        <v>0.009196579999999999</v>
       </c>
     </row>
     <row r="71">
@@ -2936,13 +2649,13 @@
         <v>2.1</v>
       </c>
       <c r="B71" t="n">
-        <v>0.198928</v>
+        <v>0.466491</v>
       </c>
       <c r="C71" t="n">
         <v>0.021</v>
       </c>
       <c r="D71" t="n">
-        <v>0.00397856</v>
+        <v>0.009329819999999999</v>
       </c>
     </row>
     <row r="72">
@@ -2950,13 +2663,13 @@
         <v>2.13</v>
       </c>
       <c r="B72" t="n">
-        <v>0.20177</v>
+        <v>0.473143</v>
       </c>
       <c r="C72" t="n">
         <v>0.0213</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0040354</v>
+        <v>0.00946286</v>
       </c>
     </row>
     <row r="73">
@@ -2964,13 +2677,13 @@
         <v>2.16</v>
       </c>
       <c r="B73" t="n">
-        <v>0.203781</v>
+        <v>0.479694</v>
       </c>
       <c r="C73" t="n">
         <v>0.0216</v>
       </c>
       <c r="D73" t="n">
-        <v>0.004075619999999999</v>
+        <v>0.009593880000000001</v>
       </c>
     </row>
     <row r="74">
@@ -2978,13 +2691,13 @@
         <v>2.19</v>
       </c>
       <c r="B74" t="n">
-        <v>0.206611</v>
+        <v>0.486219</v>
       </c>
       <c r="C74" t="n">
         <v>0.0219</v>
       </c>
       <c r="D74" t="n">
-        <v>0.00413222</v>
+        <v>0.009724379999999999</v>
       </c>
     </row>
     <row r="75">
@@ -2992,13 +2705,13 @@
         <v>2.22</v>
       </c>
       <c r="B75" t="n">
-        <v>0.209374</v>
+        <v>0.491783</v>
       </c>
       <c r="C75" t="n">
         <v>0.0222</v>
       </c>
       <c r="D75" t="n">
-        <v>0.00418748</v>
+        <v>0.009835660000000001</v>
       </c>
     </row>
     <row r="76">
@@ -3006,13 +2719,13 @@
         <v>2.25</v>
       </c>
       <c r="B76" t="n">
-        <v>0.211977</v>
+        <v>0.497936</v>
       </c>
       <c r="C76" t="n">
         <v>0.0225</v>
       </c>
       <c r="D76" t="n">
-        <v>0.00423954</v>
+        <v>0.009958719999999999</v>
       </c>
     </row>
     <row r="77">
@@ -3020,13 +2733,13 @@
         <v>2.28</v>
       </c>
       <c r="B77" t="n">
-        <v>0.214803</v>
+        <v>0.504177</v>
       </c>
       <c r="C77" t="n">
         <v>0.0228</v>
       </c>
       <c r="D77" t="n">
-        <v>0.00429606</v>
+        <v>0.01008354</v>
       </c>
     </row>
     <row r="78">
@@ -3034,13 +2747,13 @@
         <v>2.31</v>
       </c>
       <c r="B78" t="n">
-        <v>0.217629</v>
+        <v>0.510394</v>
       </c>
       <c r="C78" t="n">
         <v>0.0231</v>
       </c>
       <c r="D78" t="n">
-        <v>0.00435258</v>
+        <v>0.01020788</v>
       </c>
     </row>
     <row r="79">
@@ -3048,13 +2761,13 @@
         <v>2.34</v>
       </c>
       <c r="B79" t="n">
-        <v>0.220284</v>
+        <v>0.516673</v>
       </c>
       <c r="C79" t="n">
         <v>0.0234</v>
       </c>
       <c r="D79" t="n">
-        <v>0.00440568</v>
+        <v>0.01033346</v>
       </c>
     </row>
     <row r="80">
@@ -3062,13 +2775,13 @@
         <v>2.37</v>
       </c>
       <c r="B80" t="n">
-        <v>0.222456</v>
+        <v>0.522161</v>
       </c>
       <c r="C80" t="n">
         <v>0.0237</v>
       </c>
       <c r="D80" t="n">
-        <v>0.00444912</v>
+        <v>0.01044322</v>
       </c>
     </row>
     <row r="81">
@@ -3076,13 +2789,13 @@
         <v>2.4</v>
       </c>
       <c r="B81" t="n">
-        <v>0.222905</v>
+        <v>0.527711</v>
       </c>
       <c r="C81" t="n">
         <v>0.024</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0044581</v>
+        <v>0.01055422</v>
       </c>
     </row>
     <row r="82">
@@ -3090,13 +2803,13 @@
         <v>2.43</v>
       </c>
       <c r="B82" t="n">
-        <v>0.22562</v>
+        <v>0.532343</v>
       </c>
       <c r="C82" t="n">
         <v>0.0243</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0045124</v>
+        <v>0.01064686</v>
       </c>
     </row>
     <row r="83">
@@ -3104,13 +2817,13 @@
         <v>2.46</v>
       </c>
       <c r="B83" t="n">
-        <v>0.228311</v>
+        <v>0.537659</v>
       </c>
       <c r="C83" t="n">
         <v>0.0246</v>
       </c>
       <c r="D83" t="n">
-        <v>0.004566219999999999</v>
+        <v>0.01075318</v>
       </c>
     </row>
     <row r="84">
@@ -3118,13 +2831,13 @@
         <v>2.49</v>
       </c>
       <c r="B84" t="n">
-        <v>0.231095</v>
+        <v>0.543775</v>
       </c>
       <c r="C84" t="n">
         <v>0.0249</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0046219</v>
+        <v>0.0108755</v>
       </c>
     </row>
     <row r="85">
@@ -3132,13 +2845,13 @@
         <v>2.52</v>
       </c>
       <c r="B85" t="n">
-        <v>0.23363</v>
+        <v>0.55008</v>
       </c>
       <c r="C85" t="n">
         <v>0.0252</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0046726</v>
+        <v>0.0110016</v>
       </c>
     </row>
     <row r="86">
@@ -3146,13 +2859,13 @@
         <v>2.55</v>
       </c>
       <c r="B86" t="n">
-        <v>0.236395</v>
+        <v>0.556605</v>
       </c>
       <c r="C86" t="n">
         <v>0.02549999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0047279</v>
+        <v>0.0111321</v>
       </c>
     </row>
     <row r="87">
@@ -3160,13 +2873,13 @@
         <v>2.58</v>
       </c>
       <c r="B87" t="n">
-        <v>0.239169</v>
+        <v>0.563154</v>
       </c>
       <c r="C87" t="n">
         <v>0.0258</v>
       </c>
       <c r="D87" t="n">
-        <v>0.00478338</v>
+        <v>0.01126308</v>
       </c>
     </row>
     <row r="88">
@@ -3174,13 +2887,13 @@
         <v>2.61</v>
       </c>
       <c r="B88" t="n">
-        <v>0.24187</v>
+        <v>0.569572</v>
       </c>
       <c r="C88" t="n">
         <v>0.0261</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0048374</v>
+        <v>0.01139144</v>
       </c>
     </row>
     <row r="89">
@@ -3188,13 +2901,13 @@
         <v>2.64</v>
       </c>
       <c r="B89" t="n">
-        <v>0.24465</v>
+        <v>0.575692</v>
       </c>
       <c r="C89" t="n">
         <v>0.0264</v>
       </c>
       <c r="D89" t="n">
-        <v>0.004893</v>
+        <v>0.01151384</v>
       </c>
     </row>
     <row r="90">
@@ -3202,13 +2915,13 @@
         <v>2.67</v>
       </c>
       <c r="B90" t="n">
-        <v>0.247415</v>
+        <v>0.582056</v>
       </c>
       <c r="C90" t="n">
         <v>0.0267</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0049483</v>
+        <v>0.01164112</v>
       </c>
     </row>
     <row r="91">
@@ -3216,13 +2929,13 @@
         <v>2.7</v>
       </c>
       <c r="B91" t="n">
-        <v>0.250019</v>
+        <v>0.588531</v>
       </c>
       <c r="C91" t="n">
         <v>0.027</v>
       </c>
       <c r="D91" t="n">
-        <v>0.00500038</v>
+        <v>0.01177062</v>
       </c>
     </row>
     <row r="92">
@@ -3230,13 +2943,13 @@
         <v>2.73</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252644</v>
+        <v>0.595027</v>
       </c>
       <c r="C92" t="n">
         <v>0.0273</v>
       </c>
       <c r="D92" t="n">
-        <v>0.005052879999999999</v>
+        <v>0.01190054</v>
       </c>
     </row>
     <row r="93">
@@ -3244,13 +2957,13 @@
         <v>2.76</v>
       </c>
       <c r="B93" t="n">
-        <v>0.25494</v>
+        <v>0.601437</v>
       </c>
       <c r="C93" t="n">
         <v>0.0276</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0050988</v>
+        <v>0.01202874</v>
       </c>
     </row>
     <row r="94">
@@ -3258,13 +2971,13 @@
         <v>2.79</v>
       </c>
       <c r="B94" t="n">
-        <v>0.257243</v>
+        <v>0.607304</v>
       </c>
       <c r="C94" t="n">
         <v>0.0279</v>
       </c>
       <c r="D94" t="n">
-        <v>0.00514486</v>
+        <v>0.01214608</v>
       </c>
     </row>
     <row r="95">
@@ -3272,13 +2985,13 @@
         <v>2.82</v>
       </c>
       <c r="B95" t="n">
-        <v>0.259813</v>
+        <v>0.613009</v>
       </c>
       <c r="C95" t="n">
         <v>0.0282</v>
       </c>
       <c r="D95" t="n">
-        <v>0.00519626</v>
+        <v>0.01226018</v>
       </c>
     </row>
     <row r="96">
@@ -3286,13 +2999,13 @@
         <v>2.85</v>
       </c>
       <c r="B96" t="n">
-        <v>0.26253</v>
+        <v>0.618224</v>
       </c>
       <c r="C96" t="n">
         <v>0.0285</v>
       </c>
       <c r="D96" t="n">
-        <v>0.005250599999999999</v>
+        <v>0.01236448</v>
       </c>
     </row>
     <row r="97">
@@ -3300,13 +3013,13 @@
         <v>2.88</v>
       </c>
       <c r="B97" t="n">
-        <v>0.265132</v>
+        <v>0.6225850000000001</v>
       </c>
       <c r="C97" t="n">
         <v>0.0288</v>
       </c>
       <c r="D97" t="n">
-        <v>0.00530264</v>
+        <v>0.0124517</v>
       </c>
     </row>
     <row r="98">
@@ -3314,13 +3027,13 @@
         <v>2.91</v>
       </c>
       <c r="B98" t="n">
-        <v>0.267549</v>
+        <v>0.623698</v>
       </c>
       <c r="C98" t="n">
         <v>0.0291</v>
       </c>
       <c r="D98" t="n">
-        <v>0.00535098</v>
+        <v>0.01247396</v>
       </c>
     </row>
     <row r="99">
@@ -3328,13 +3041,13 @@
         <v>2.94</v>
       </c>
       <c r="B99" t="n">
-        <v>0.270307</v>
+        <v>0.62699</v>
       </c>
       <c r="C99" t="n">
         <v>0.0294</v>
       </c>
       <c r="D99" t="n">
-        <v>0.00540614</v>
+        <v>0.0125398</v>
       </c>
     </row>
     <row r="100">
@@ -3342,13 +3055,13 @@
         <v>2.97</v>
       </c>
       <c r="B100" t="n">
-        <v>0.273065</v>
+        <v>0.632871</v>
       </c>
       <c r="C100" t="n">
         <v>0.0297</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0054613</v>
+        <v>0.01265742</v>
       </c>
     </row>
     <row r="101">
@@ -3356,13 +3069,13 @@
         <v>3</v>
       </c>
       <c r="B101" t="n">
-        <v>0.275823</v>
+        <v>0.639028</v>
       </c>
       <c r="C101" t="n">
         <v>0.03</v>
       </c>
       <c r="D101" t="n">
-        <v>0.00551646</v>
+        <v>0.01278056</v>
       </c>
     </row>
   </sheetData>
@@ -3408,7 +3121,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>6\cfrp1\danmen=50\cf_tensile=700\6_c1_dan50_cft700.csv</t>
+          <t>6\cfrp1\danmen=50\cf_tensile=800\6_c1_dan50_cft800.csv</t>
         </is>
       </c>
     </row>
@@ -3417,13 +3130,13 @@
         <v>0.03</v>
       </c>
       <c r="B2" t="n">
-        <v>26.1835</v>
+        <v>43.4772</v>
       </c>
       <c r="C2" t="n">
         <v>0.0003</v>
       </c>
       <c r="D2" t="n">
-        <v>0.52367</v>
+        <v>0.8695440000000001</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3431,7 +3144,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>23.0414</v>
+        <v>43.4772</v>
       </c>
     </row>
     <row r="3">
@@ -3439,13 +3152,13 @@
         <v>0.06</v>
       </c>
       <c r="B3" t="n">
-        <v>52.3669</v>
+        <v>86.95440000000001</v>
       </c>
       <c r="C3" t="n">
         <v>0.0005999999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>1.047338</v>
+        <v>1.739088</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3453,7 +3166,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1745.563888888889</v>
+        <v>2898.476666666666</v>
       </c>
     </row>
     <row r="4">
@@ -3461,13 +3174,13 @@
         <v>0.09</v>
       </c>
       <c r="B4" t="n">
-        <v>78.5504</v>
+        <v>130.432</v>
       </c>
       <c r="C4" t="n">
         <v>0.0008999999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>1.571008</v>
+        <v>2.60864</v>
       </c>
     </row>
     <row r="5">
@@ -3475,13 +3188,13 @@
         <v>0.12</v>
       </c>
       <c r="B5" t="n">
-        <v>104.734</v>
+        <v>173.909</v>
       </c>
       <c r="C5" t="n">
         <v>0.0012</v>
       </c>
       <c r="D5" t="n">
-        <v>2.09468</v>
+        <v>3.47818</v>
       </c>
     </row>
     <row r="6">
@@ -3489,13 +3202,13 @@
         <v>0.15</v>
       </c>
       <c r="B6" t="n">
-        <v>130.917</v>
+        <v>217.386</v>
       </c>
       <c r="C6" t="n">
         <v>0.0015</v>
       </c>
       <c r="D6" t="n">
-        <v>2.61834</v>
+        <v>4.34772</v>
       </c>
     </row>
     <row r="7">
@@ -3503,13 +3216,13 @@
         <v>0.18</v>
       </c>
       <c r="B7" t="n">
-        <v>157.101</v>
+        <v>260.863</v>
       </c>
       <c r="C7" t="n">
         <v>0.0018</v>
       </c>
       <c r="D7" t="n">
-        <v>3.14202</v>
+        <v>5.21726</v>
       </c>
     </row>
     <row r="8">
@@ -3517,13 +3230,13 @@
         <v>0.21</v>
       </c>
       <c r="B8" t="n">
-        <v>183.284</v>
+        <v>304.34</v>
       </c>
       <c r="C8" t="n">
         <v>0.0021</v>
       </c>
       <c r="D8" t="n">
-        <v>3.66568</v>
+        <v>6.086799999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3531,13 +3244,13 @@
         <v>0.24</v>
       </c>
       <c r="B9" t="n">
-        <v>209.468</v>
+        <v>347.817</v>
       </c>
       <c r="C9" t="n">
         <v>0.0024</v>
       </c>
       <c r="D9" t="n">
-        <v>4.18936</v>
+        <v>6.95634</v>
       </c>
     </row>
     <row r="10">
@@ -3545,13 +3258,13 @@
         <v>0.27</v>
       </c>
       <c r="B10" t="n">
-        <v>235.651</v>
+        <v>391.295</v>
       </c>
       <c r="C10" t="n">
         <v>0.0027</v>
       </c>
       <c r="D10" t="n">
-        <v>4.71302</v>
+        <v>7.825900000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3559,13 +3272,13 @@
         <v>0.3</v>
       </c>
       <c r="B11" t="n">
-        <v>261.835</v>
+        <v>434.772</v>
       </c>
       <c r="C11" t="n">
         <v>0.003</v>
       </c>
       <c r="D11" t="n">
-        <v>5.2367</v>
+        <v>8.69544</v>
       </c>
     </row>
     <row r="12">
@@ -3573,13 +3286,13 @@
         <v>0.33</v>
       </c>
       <c r="B12" t="n">
-        <v>288.018</v>
+        <v>478.249</v>
       </c>
       <c r="C12" t="n">
         <v>0.0033</v>
       </c>
       <c r="D12" t="n">
-        <v>5.760359999999999</v>
+        <v>9.56498</v>
       </c>
     </row>
     <row r="13">
@@ -3587,13 +3300,13 @@
         <v>0.36</v>
       </c>
       <c r="B13" t="n">
-        <v>314.202</v>
+        <v>521.726</v>
       </c>
       <c r="C13" t="n">
         <v>0.003599999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>6.28404</v>
+        <v>10.43452</v>
       </c>
     </row>
     <row r="14">
@@ -3601,13 +3314,13 @@
         <v>0.39</v>
       </c>
       <c r="B14" t="n">
-        <v>340.385</v>
+        <v>565.203</v>
       </c>
       <c r="C14" t="n">
         <v>0.0039</v>
       </c>
       <c r="D14" t="n">
-        <v>6.8077</v>
+        <v>11.30406</v>
       </c>
     </row>
     <row r="15">
@@ -3615,13 +3328,13 @@
         <v>0.42</v>
       </c>
       <c r="B15" t="n">
-        <v>366.568</v>
+        <v>608.681</v>
       </c>
       <c r="C15" t="n">
         <v>0.0042</v>
       </c>
       <c r="D15" t="n">
-        <v>7.33136</v>
+        <v>12.17362</v>
       </c>
     </row>
     <row r="16">
@@ -3629,13 +3342,13 @@
         <v>0.45</v>
       </c>
       <c r="B16" t="n">
-        <v>392.752</v>
+        <v>652.158</v>
       </c>
       <c r="C16" t="n">
         <v>0.004500000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>7.85504</v>
+        <v>13.04316</v>
       </c>
     </row>
     <row r="17">
@@ -3643,13 +3356,13 @@
         <v>0.48</v>
       </c>
       <c r="B17" t="n">
-        <v>418.935</v>
+        <v>695.635</v>
       </c>
       <c r="C17" t="n">
         <v>0.0048</v>
       </c>
       <c r="D17" t="n">
-        <v>8.3787</v>
+        <v>13.9127</v>
       </c>
     </row>
     <row r="18">
@@ -3657,13 +3370,13 @@
         <v>0.51</v>
       </c>
       <c r="B18" t="n">
-        <v>445.119</v>
+        <v>739.112</v>
       </c>
       <c r="C18" t="n">
         <v>0.0051</v>
       </c>
       <c r="D18" t="n">
-        <v>8.902380000000001</v>
+        <v>14.78224</v>
       </c>
     </row>
     <row r="19">
@@ -3671,13 +3384,13 @@
         <v>0.54</v>
       </c>
       <c r="B19" t="n">
-        <v>471.302</v>
+        <v>782.5890000000001</v>
       </c>
       <c r="C19" t="n">
         <v>0.005399999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>9.42604</v>
+        <v>15.65178</v>
       </c>
     </row>
     <row r="20">
@@ -3685,13 +3398,13 @@
         <v>0.57</v>
       </c>
       <c r="B20" t="n">
-        <v>497.486</v>
+        <v>826.067</v>
       </c>
       <c r="C20" t="n">
         <v>0.005699999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>9.949719999999999</v>
+        <v>16.52134</v>
       </c>
     </row>
     <row r="21">
@@ -3699,13 +3412,13 @@
         <v>0.6</v>
       </c>
       <c r="B21" t="n">
-        <v>523.669</v>
+        <v>869.544</v>
       </c>
       <c r="C21" t="n">
         <v>0.005999999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>10.47338</v>
+        <v>17.39088</v>
       </c>
     </row>
     <row r="22">
@@ -3713,13 +3426,13 @@
         <v>0.63</v>
       </c>
       <c r="B22" t="n">
-        <v>549.853</v>
+        <v>913.021</v>
       </c>
       <c r="C22" t="n">
         <v>0.0063</v>
       </c>
       <c r="D22" t="n">
-        <v>10.99706</v>
+        <v>18.26042</v>
       </c>
     </row>
     <row r="23">
@@ -3727,13 +3440,13 @@
         <v>0.66</v>
       </c>
       <c r="B23" t="n">
-        <v>576.0359999999999</v>
+        <v>956.498</v>
       </c>
       <c r="C23" t="n">
         <v>0.0066</v>
       </c>
       <c r="D23" t="n">
-        <v>11.52072</v>
+        <v>19.12996</v>
       </c>
     </row>
     <row r="24">
@@ -3741,13 +3454,13 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>602.22</v>
+        <v>999.975</v>
       </c>
       <c r="C24" t="n">
         <v>0.006899999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>12.0444</v>
+        <v>19.9995</v>
       </c>
     </row>
     <row r="25">
@@ -3755,13 +3468,13 @@
         <v>0.72</v>
       </c>
       <c r="B25" t="n">
-        <v>628.403</v>
+        <v>1043.45</v>
       </c>
       <c r="C25" t="n">
         <v>0.007199999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>12.56806</v>
+        <v>20.869</v>
       </c>
     </row>
     <row r="26">
@@ -3769,13 +3482,13 @@
         <v>0.75</v>
       </c>
       <c r="B26" t="n">
-        <v>654.587</v>
+        <v>1086.93</v>
       </c>
       <c r="C26" t="n">
         <v>0.0075</v>
       </c>
       <c r="D26" t="n">
-        <v>13.09174</v>
+        <v>21.7386</v>
       </c>
     </row>
     <row r="27">
@@ -3783,13 +3496,13 @@
         <v>0.78</v>
       </c>
       <c r="B27" t="n">
-        <v>680.77</v>
+        <v>1130.41</v>
       </c>
       <c r="C27" t="n">
         <v>0.007800000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>13.6154</v>
+        <v>22.6082</v>
       </c>
     </row>
     <row r="28">
@@ -3797,13 +3510,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B28" t="n">
-        <v>706.954</v>
+        <v>1173.88</v>
       </c>
       <c r="C28" t="n">
         <v>0.0081</v>
       </c>
       <c r="D28" t="n">
-        <v>14.13908</v>
+        <v>23.4776</v>
       </c>
     </row>
     <row r="29">
@@ -3811,13 +3524,13 @@
         <v>0.84</v>
       </c>
       <c r="B29" t="n">
-        <v>733.1369999999999</v>
+        <v>1217.36</v>
       </c>
       <c r="C29" t="n">
         <v>0.008399999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>14.66274</v>
+        <v>24.3472</v>
       </c>
     </row>
     <row r="30">
@@ -3825,13 +3538,13 @@
         <v>0.87</v>
       </c>
       <c r="B30" t="n">
-        <v>759.3200000000001</v>
+        <v>1260.84</v>
       </c>
       <c r="C30" t="n">
         <v>0.008699999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>15.1864</v>
+        <v>25.2168</v>
       </c>
     </row>
     <row r="31">
@@ -3839,13 +3552,13 @@
         <v>0.9</v>
       </c>
       <c r="B31" t="n">
-        <v>785.504</v>
+        <v>1304.32</v>
       </c>
       <c r="C31" t="n">
         <v>0.009000000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>15.71008</v>
+        <v>26.0864</v>
       </c>
     </row>
     <row r="32">
@@ -3853,13 +3566,13 @@
         <v>0.93</v>
       </c>
       <c r="B32" t="n">
-        <v>811.687</v>
+        <v>1347.79</v>
       </c>
       <c r="C32" t="n">
         <v>0.009299999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>16.23374</v>
+        <v>26.9558</v>
       </c>
     </row>
     <row r="33">
@@ -3867,13 +3580,13 @@
         <v>0.96</v>
       </c>
       <c r="B33" t="n">
-        <v>837.871</v>
+        <v>1391.27</v>
       </c>
       <c r="C33" t="n">
         <v>0.009599999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>16.75742</v>
+        <v>27.8254</v>
       </c>
     </row>
     <row r="34">
@@ -3881,13 +3594,13 @@
         <v>0.99</v>
       </c>
       <c r="B34" t="n">
-        <v>864.054</v>
+        <v>1434.75</v>
       </c>
       <c r="C34" t="n">
         <v>0.009899999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>17.28108</v>
+        <v>28.695</v>
       </c>
     </row>
     <row r="35">
@@ -3895,13 +3608,13 @@
         <v>1.02</v>
       </c>
       <c r="B35" t="n">
-        <v>890.2380000000001</v>
+        <v>1478.22</v>
       </c>
       <c r="C35" t="n">
         <v>0.0102</v>
       </c>
       <c r="D35" t="n">
-        <v>17.80476</v>
+        <v>29.5644</v>
       </c>
     </row>
     <row r="36">
@@ -3909,13 +3622,13 @@
         <v>1.05</v>
       </c>
       <c r="B36" t="n">
-        <v>916.421</v>
+        <v>1521.7</v>
       </c>
       <c r="C36" t="n">
         <v>0.0105</v>
       </c>
       <c r="D36" t="n">
-        <v>18.32842</v>
+        <v>30.434</v>
       </c>
     </row>
     <row r="37">
@@ -3923,13 +3636,13 @@
         <v>1.08</v>
       </c>
       <c r="B37" t="n">
-        <v>942.605</v>
+        <v>1565.18</v>
       </c>
       <c r="C37" t="n">
         <v>0.0108</v>
       </c>
       <c r="D37" t="n">
-        <v>18.8521</v>
+        <v>31.3036</v>
       </c>
     </row>
     <row r="38">
@@ -3937,13 +3650,13 @@
         <v>1.11</v>
       </c>
       <c r="B38" t="n">
-        <v>968.788</v>
+        <v>1608.66</v>
       </c>
       <c r="C38" t="n">
         <v>0.0111</v>
       </c>
       <c r="D38" t="n">
-        <v>19.37576</v>
+        <v>32.1732</v>
       </c>
     </row>
     <row r="39">
@@ -3951,13 +3664,13 @@
         <v>1.14</v>
       </c>
       <c r="B39" t="n">
-        <v>994.972</v>
+        <v>1652.13</v>
       </c>
       <c r="C39" t="n">
         <v>0.0114</v>
       </c>
       <c r="D39" t="n">
-        <v>19.89944</v>
+        <v>33.0426</v>
       </c>
     </row>
     <row r="40">
@@ -3965,13 +3678,13 @@
         <v>1.17</v>
       </c>
       <c r="B40" t="n">
-        <v>1021.16</v>
+        <v>1695.61</v>
       </c>
       <c r="C40" t="n">
         <v>0.0117</v>
       </c>
       <c r="D40" t="n">
-        <v>20.4232</v>
+        <v>33.9122</v>
       </c>
     </row>
     <row r="41">
@@ -3979,13 +3692,13 @@
         <v>1.2</v>
       </c>
       <c r="B41" t="n">
-        <v>1047.34</v>
+        <v>1739.09</v>
       </c>
       <c r="C41" t="n">
         <v>0.012</v>
       </c>
       <c r="D41" t="n">
-        <v>20.9468</v>
+        <v>34.7818</v>
       </c>
     </row>
     <row r="42">
@@ -3993,13 +3706,13 @@
         <v>1.23</v>
       </c>
       <c r="B42" t="n">
-        <v>1073.52</v>
+        <v>1782.56</v>
       </c>
       <c r="C42" t="n">
         <v>0.0123</v>
       </c>
       <c r="D42" t="n">
-        <v>21.4704</v>
+        <v>35.6512</v>
       </c>
     </row>
     <row r="43">
@@ -4007,13 +3720,13 @@
         <v>1.26</v>
       </c>
       <c r="B43" t="n">
-        <v>1099.71</v>
+        <v>1826.04</v>
       </c>
       <c r="C43" t="n">
         <v>0.0126</v>
       </c>
       <c r="D43" t="n">
-        <v>21.9942</v>
+        <v>36.5208</v>
       </c>
     </row>
     <row r="44">
@@ -4021,13 +3734,13 @@
         <v>1.29</v>
       </c>
       <c r="B44" t="n">
-        <v>1125.89</v>
+        <v>1869.52</v>
       </c>
       <c r="C44" t="n">
         <v>0.0129</v>
       </c>
       <c r="D44" t="n">
-        <v>22.5178</v>
+        <v>37.3904</v>
       </c>
     </row>
     <row r="45">
@@ -4035,13 +3748,13 @@
         <v>1.32</v>
       </c>
       <c r="B45" t="n">
-        <v>1152.07</v>
+        <v>1913</v>
       </c>
       <c r="C45" t="n">
         <v>0.0132</v>
       </c>
       <c r="D45" t="n">
-        <v>23.0414</v>
+        <v>38.26</v>
       </c>
     </row>
     <row r="46">
@@ -4049,13 +3762,13 @@
         <v>1.35</v>
       </c>
       <c r="B46" t="n">
-        <v>746.127</v>
+        <v>1956.47</v>
       </c>
       <c r="C46" t="n">
         <v>0.0135</v>
       </c>
       <c r="D46" t="n">
-        <v>14.92254</v>
+        <v>39.1294</v>
       </c>
     </row>
     <row r="47">
@@ -4063,13 +3776,13 @@
         <v>1.38</v>
       </c>
       <c r="B47" t="n">
-        <v>762.707</v>
+        <v>1999.95</v>
       </c>
       <c r="C47" t="n">
         <v>0.0138</v>
       </c>
       <c r="D47" t="n">
-        <v>15.25414</v>
+        <v>39.999</v>
       </c>
     </row>
     <row r="48">
@@ -4077,13 +3790,13 @@
         <v>1.41</v>
       </c>
       <c r="B48" t="n">
-        <v>779.288</v>
+        <v>2043.43</v>
       </c>
       <c r="C48" t="n">
         <v>0.0141</v>
       </c>
       <c r="D48" t="n">
-        <v>15.58576</v>
+        <v>40.8686</v>
       </c>
     </row>
     <row r="49">
@@ -4091,13 +3804,13 @@
         <v>1.44</v>
       </c>
       <c r="B49" t="n">
-        <v>795.869</v>
+        <v>2086.9</v>
       </c>
       <c r="C49" t="n">
         <v>0.0144</v>
       </c>
       <c r="D49" t="n">
-        <v>15.91738</v>
+        <v>41.738</v>
       </c>
     </row>
     <row r="50">
@@ -4105,13 +3818,13 @@
         <v>1.47</v>
       </c>
       <c r="B50" t="n">
-        <v>812.449</v>
+        <v>2130.38</v>
       </c>
       <c r="C50" t="n">
         <v>0.0147</v>
       </c>
       <c r="D50" t="n">
-        <v>16.24898</v>
+        <v>42.60760000000001</v>
       </c>
     </row>
     <row r="51">
@@ -4119,13 +3832,13 @@
         <v>1.5</v>
       </c>
       <c r="B51" t="n">
-        <v>829.03</v>
+        <v>2173.86</v>
       </c>
       <c r="C51" t="n">
         <v>0.015</v>
       </c>
       <c r="D51" t="n">
-        <v>16.5806</v>
+        <v>43.4772</v>
       </c>
     </row>
     <row r="52">
@@ -4133,13 +3846,13 @@
         <v>1.53</v>
       </c>
       <c r="B52" t="n">
-        <v>845.61</v>
+        <v>842.919</v>
       </c>
       <c r="C52" t="n">
         <v>0.0153</v>
       </c>
       <c r="D52" t="n">
-        <v>16.9122</v>
+        <v>16.85838</v>
       </c>
     </row>
     <row r="53">
@@ -4147,13 +3860,13 @@
         <v>1.56</v>
       </c>
       <c r="B53" t="n">
-        <v>862.191</v>
+        <v>859.447</v>
       </c>
       <c r="C53" t="n">
         <v>0.0156</v>
       </c>
       <c r="D53" t="n">
-        <v>17.24382</v>
+        <v>17.18894</v>
       </c>
     </row>
     <row r="54">
@@ -4161,13 +3874,13 @@
         <v>1.59</v>
       </c>
       <c r="B54" t="n">
-        <v>878.772</v>
+        <v>875.975</v>
       </c>
       <c r="C54" t="n">
         <v>0.0159</v>
       </c>
       <c r="D54" t="n">
-        <v>17.57544</v>
+        <v>17.5195</v>
       </c>
     </row>
     <row r="55">
@@ -4175,13 +3888,13 @@
         <v>1.62</v>
       </c>
       <c r="B55" t="n">
-        <v>895.352</v>
+        <v>892.503</v>
       </c>
       <c r="C55" t="n">
         <v>0.0162</v>
       </c>
       <c r="D55" t="n">
-        <v>17.90704</v>
+        <v>17.85006</v>
       </c>
     </row>
     <row r="56">
@@ -4189,13 +3902,13 @@
         <v>1.65</v>
       </c>
       <c r="B56" t="n">
-        <v>911.841</v>
+        <v>908.848</v>
       </c>
       <c r="C56" t="n">
         <v>0.0165</v>
       </c>
       <c r="D56" t="n">
-        <v>18.23682</v>
+        <v>18.17696</v>
       </c>
     </row>
     <row r="57">
@@ -4203,13 +3916,13 @@
         <v>1.68</v>
       </c>
       <c r="B57" t="n">
-        <v>926.9829999999999</v>
+        <v>922.585</v>
       </c>
       <c r="C57" t="n">
         <v>0.0168</v>
       </c>
       <c r="D57" t="n">
-        <v>18.53966</v>
+        <v>18.4517</v>
       </c>
     </row>
     <row r="58">
@@ -4217,13 +3930,13 @@
         <v>1.71</v>
       </c>
       <c r="B58" t="n">
-        <v>932.763</v>
+        <v>922.54</v>
       </c>
       <c r="C58" t="n">
         <v>0.0171</v>
       </c>
       <c r="D58" t="n">
-        <v>18.65526</v>
+        <v>18.4508</v>
       </c>
     </row>
     <row r="59">
@@ -4231,13 +3944,13 @@
         <v>1.74</v>
       </c>
       <c r="B59" t="n">
-        <v>839.441</v>
+        <v>645.633</v>
       </c>
       <c r="C59" t="n">
         <v>0.0174</v>
       </c>
       <c r="D59" t="n">
-        <v>16.78882</v>
+        <v>12.91266</v>
       </c>
     </row>
     <row r="60">
@@ -4245,13 +3958,13 @@
         <v>1.77</v>
       </c>
       <c r="B60" t="n">
-        <v>585.348</v>
+        <v>0.670689</v>
       </c>
       <c r="C60" t="n">
         <v>0.0177</v>
       </c>
       <c r="D60" t="n">
-        <v>11.70696</v>
+        <v>0.01341378</v>
       </c>
     </row>
     <row r="61">
@@ -4259,13 +3972,13 @@
         <v>1.8</v>
       </c>
       <c r="B61" t="n">
-        <v>302.077</v>
+        <v>0.460105</v>
       </c>
       <c r="C61" t="n">
         <v>0.018</v>
       </c>
       <c r="D61" t="n">
-        <v>6.04154</v>
+        <v>0.0092021</v>
       </c>
     </row>
     <row r="62">
@@ -4273,13 +3986,13 @@
         <v>1.83</v>
       </c>
       <c r="B62" t="n">
-        <v>120.334</v>
+        <v>0.42659</v>
       </c>
       <c r="C62" t="n">
         <v>0.0183</v>
       </c>
       <c r="D62" t="n">
-        <v>2.40668</v>
+        <v>0.008531800000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4287,13 +4000,13 @@
         <v>1.86</v>
       </c>
       <c r="B63" t="n">
-        <v>1.08095</v>
+        <v>0.417625</v>
       </c>
       <c r="C63" t="n">
         <v>0.0186</v>
       </c>
       <c r="D63" t="n">
-        <v>0.021619</v>
+        <v>0.008352500000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4301,13 +4014,13 @@
         <v>1.89</v>
       </c>
       <c r="B64" t="n">
-        <v>0.637755</v>
+        <v>0.421783</v>
       </c>
       <c r="C64" t="n">
         <v>0.0189</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0127551</v>
+        <v>0.008435660000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4315,13 +4028,13 @@
         <v>1.92</v>
       </c>
       <c r="B65" t="n">
-        <v>0.513477</v>
+        <v>0.427998</v>
       </c>
       <c r="C65" t="n">
         <v>0.0192</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01026954</v>
+        <v>0.00855996</v>
       </c>
     </row>
     <row r="66">
@@ -4329,13 +4042,13 @@
         <v>1.95</v>
       </c>
       <c r="B66" t="n">
-        <v>0.51476</v>
+        <v>0.434367</v>
       </c>
       <c r="C66" t="n">
         <v>0.0195</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0102952</v>
+        <v>0.00868734</v>
       </c>
     </row>
     <row r="67">
@@ -4343,13 +4056,13 @@
         <v>1.98</v>
       </c>
       <c r="B67" t="n">
-        <v>0.51867</v>
+        <v>0.440673</v>
       </c>
       <c r="C67" t="n">
         <v>0.0198</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0103734</v>
+        <v>0.00881346</v>
       </c>
     </row>
     <row r="68">
@@ -4357,13 +4070,13 @@
         <v>2.01</v>
       </c>
       <c r="B68" t="n">
-        <v>0.523361</v>
+        <v>0.446971</v>
       </c>
       <c r="C68" t="n">
         <v>0.0201</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01046722</v>
+        <v>0.00893942</v>
       </c>
     </row>
     <row r="69">
@@ -4371,13 +4084,13 @@
         <v>2.04</v>
       </c>
       <c r="B69" t="n">
-        <v>0.529013</v>
+        <v>0.453304</v>
       </c>
       <c r="C69" t="n">
         <v>0.0204</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01058026</v>
+        <v>0.009066079999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4385,13 +4098,13 @@
         <v>2.07</v>
       </c>
       <c r="B70" t="n">
-        <v>0.532904</v>
+        <v>0.459829</v>
       </c>
       <c r="C70" t="n">
         <v>0.0207</v>
       </c>
       <c r="D70" t="n">
-        <v>0.01065808</v>
+        <v>0.009196579999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4399,13 +4112,13 @@
         <v>2.1</v>
       </c>
       <c r="B71" t="n">
-        <v>0.540493</v>
+        <v>0.466491</v>
       </c>
       <c r="C71" t="n">
         <v>0.021</v>
       </c>
       <c r="D71" t="n">
-        <v>0.01080986</v>
+        <v>0.009329819999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4413,13 +4126,13 @@
         <v>2.13</v>
       </c>
       <c r="B72" t="n">
-        <v>0.548214</v>
+        <v>0.473143</v>
       </c>
       <c r="C72" t="n">
         <v>0.0213</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01096428</v>
+        <v>0.00946286</v>
       </c>
     </row>
     <row r="73">
@@ -4427,13 +4140,13 @@
         <v>2.16</v>
       </c>
       <c r="B73" t="n">
-        <v>0.555936</v>
+        <v>0.479694</v>
       </c>
       <c r="C73" t="n">
         <v>0.0216</v>
       </c>
       <c r="D73" t="n">
-        <v>0.01111872</v>
+        <v>0.009593880000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4441,13 +4154,13 @@
         <v>2.19</v>
       </c>
       <c r="B74" t="n">
-        <v>0.563657</v>
+        <v>0.486219</v>
       </c>
       <c r="C74" t="n">
         <v>0.0219</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01127314</v>
+        <v>0.009724379999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4455,13 +4168,13 @@
         <v>2.22</v>
       </c>
       <c r="B75" t="n">
-        <v>0.571141</v>
+        <v>0.491783</v>
       </c>
       <c r="C75" t="n">
         <v>0.0222</v>
       </c>
       <c r="D75" t="n">
-        <v>0.01142282</v>
+        <v>0.009835660000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4469,13 +4182,13 @@
         <v>2.25</v>
       </c>
       <c r="B76" t="n">
-        <v>0.578692</v>
+        <v>0.497936</v>
       </c>
       <c r="C76" t="n">
         <v>0.0225</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01157384</v>
+        <v>0.009958719999999999</v>
       </c>
     </row>
     <row r="77">
@@ -4483,13 +4196,13 @@
         <v>2.28</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5863930000000001</v>
+        <v>0.504177</v>
       </c>
       <c r="C77" t="n">
         <v>0.0228</v>
       </c>
       <c r="D77" t="n">
-        <v>0.01172786</v>
+        <v>0.01008354</v>
       </c>
     </row>
     <row r="78">
@@ -4497,13 +4210,13 @@
         <v>2.31</v>
       </c>
       <c r="B78" t="n">
-        <v>0.593882</v>
+        <v>0.510394</v>
       </c>
       <c r="C78" t="n">
         <v>0.0231</v>
       </c>
       <c r="D78" t="n">
-        <v>0.01187764</v>
+        <v>0.01020788</v>
       </c>
     </row>
     <row r="79">
@@ -4511,13 +4224,13 @@
         <v>2.34</v>
       </c>
       <c r="B79" t="n">
-        <v>0.601448</v>
+        <v>0.516673</v>
       </c>
       <c r="C79" t="n">
         <v>0.0234</v>
       </c>
       <c r="D79" t="n">
-        <v>0.01202896</v>
+        <v>0.01033346</v>
       </c>
     </row>
     <row r="80">
@@ -4525,13 +4238,13 @@
         <v>2.37</v>
       </c>
       <c r="B80" t="n">
-        <v>0.608834</v>
+        <v>0.522161</v>
       </c>
       <c r="C80" t="n">
         <v>0.0237</v>
       </c>
       <c r="D80" t="n">
-        <v>0.01217668</v>
+        <v>0.01044322</v>
       </c>
     </row>
     <row r="81">
@@ -4539,13 +4252,13 @@
         <v>2.4</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6163110000000001</v>
+        <v>0.527711</v>
       </c>
       <c r="C81" t="n">
         <v>0.024</v>
       </c>
       <c r="D81" t="n">
-        <v>0.01232622</v>
+        <v>0.01055422</v>
       </c>
     </row>
     <row r="82">
@@ -4553,13 +4266,13 @@
         <v>2.43</v>
       </c>
       <c r="B82" t="n">
-        <v>0.624015</v>
+        <v>0.532343</v>
       </c>
       <c r="C82" t="n">
         <v>0.0243</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0124803</v>
+        <v>0.01064686</v>
       </c>
     </row>
     <row r="83">
@@ -4567,13 +4280,13 @@
         <v>2.46</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6295770000000001</v>
+        <v>0.537659</v>
       </c>
       <c r="C83" t="n">
         <v>0.0246</v>
       </c>
       <c r="D83" t="n">
-        <v>0.01259154</v>
+        <v>0.01075318</v>
       </c>
     </row>
     <row r="84">
@@ -4581,13 +4294,13 @@
         <v>2.49</v>
       </c>
       <c r="B84" t="n">
-        <v>0.637254</v>
+        <v>0.543775</v>
       </c>
       <c r="C84" t="n">
         <v>0.0249</v>
       </c>
       <c r="D84" t="n">
-        <v>0.01274508</v>
+        <v>0.0108755</v>
       </c>
     </row>
     <row r="85">
@@ -4595,13 +4308,13 @@
         <v>2.52</v>
       </c>
       <c r="B85" t="n">
-        <v>0.644272</v>
+        <v>0.55008</v>
       </c>
       <c r="C85" t="n">
         <v>0.0252</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01288544</v>
+        <v>0.0110016</v>
       </c>
     </row>
     <row r="86">
@@ -4609,13 +4322,13 @@
         <v>2.55</v>
       </c>
       <c r="B86" t="n">
-        <v>0.651942</v>
+        <v>0.556605</v>
       </c>
       <c r="C86" t="n">
         <v>0.02549999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.01303884</v>
+        <v>0.0111321</v>
       </c>
     </row>
     <row r="87">
@@ -4623,13 +4336,13 @@
         <v>2.58</v>
       </c>
       <c r="B87" t="n">
-        <v>0.658175</v>
+        <v>0.563154</v>
       </c>
       <c r="C87" t="n">
         <v>0.0258</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0131635</v>
+        <v>0.01126308</v>
       </c>
     </row>
     <row r="88">
@@ -4637,13 +4350,13 @@
         <v>2.61</v>
       </c>
       <c r="B88" t="n">
-        <v>0.664206</v>
+        <v>0.569572</v>
       </c>
       <c r="C88" t="n">
         <v>0.0261</v>
       </c>
       <c r="D88" t="n">
-        <v>0.01328412</v>
+        <v>0.01139144</v>
       </c>
     </row>
     <row r="89">
@@ -4651,13 +4364,13 @@
         <v>2.64</v>
       </c>
       <c r="B89" t="n">
-        <v>0.671606</v>
+        <v>0.575692</v>
       </c>
       <c r="C89" t="n">
         <v>0.0264</v>
       </c>
       <c r="D89" t="n">
-        <v>0.01343212</v>
+        <v>0.01151384</v>
       </c>
     </row>
     <row r="90">
@@ -4665,13 +4378,13 @@
         <v>2.67</v>
       </c>
       <c r="B90" t="n">
-        <v>0.678569</v>
+        <v>0.582056</v>
       </c>
       <c r="C90" t="n">
         <v>0.0267</v>
       </c>
       <c r="D90" t="n">
-        <v>0.01357138</v>
+        <v>0.01164112</v>
       </c>
     </row>
     <row r="91">
@@ -4679,13 +4392,13 @@
         <v>2.7</v>
       </c>
       <c r="B91" t="n">
-        <v>0.686024</v>
+        <v>0.588531</v>
       </c>
       <c r="C91" t="n">
         <v>0.027</v>
       </c>
       <c r="D91" t="n">
-        <v>0.01372048</v>
+        <v>0.01177062</v>
       </c>
     </row>
     <row r="92">
@@ -4693,13 +4406,13 @@
         <v>2.73</v>
       </c>
       <c r="B92" t="n">
-        <v>0.690325</v>
+        <v>0.595027</v>
       </c>
       <c r="C92" t="n">
         <v>0.0273</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0138065</v>
+        <v>0.01190054</v>
       </c>
     </row>
     <row r="93">
@@ -4707,13 +4420,13 @@
         <v>2.76</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6979109999999999</v>
+        <v>0.601437</v>
       </c>
       <c r="C93" t="n">
         <v>0.0276</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01395822</v>
+        <v>0.01202874</v>
       </c>
     </row>
     <row r="94">
@@ -4721,13 +4434,13 @@
         <v>2.79</v>
       </c>
       <c r="B94" t="n">
-        <v>0.705497</v>
+        <v>0.607304</v>
       </c>
       <c r="C94" t="n">
         <v>0.0279</v>
       </c>
       <c r="D94" t="n">
-        <v>0.01410994</v>
+        <v>0.01214608</v>
       </c>
     </row>
     <row r="95">
@@ -4735,13 +4448,13 @@
         <v>2.82</v>
       </c>
       <c r="B95" t="n">
-        <v>0.712097</v>
+        <v>0.613009</v>
       </c>
       <c r="C95" t="n">
         <v>0.0282</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01424194</v>
+        <v>0.01226018</v>
       </c>
     </row>
     <row r="96">
@@ -4749,13 +4462,13 @@
         <v>2.85</v>
       </c>
       <c r="B96" t="n">
-        <v>0.719085</v>
+        <v>0.618224</v>
       </c>
       <c r="C96" t="n">
         <v>0.0285</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0143817</v>
+        <v>0.01236448</v>
       </c>
     </row>
     <row r="97">
@@ -4763,13 +4476,13 @@
         <v>2.88</v>
       </c>
       <c r="B97" t="n">
-        <v>0.726177</v>
+        <v>0.6225850000000001</v>
       </c>
       <c r="C97" t="n">
         <v>0.0288</v>
       </c>
       <c r="D97" t="n">
-        <v>0.01452354</v>
+        <v>0.0124517</v>
       </c>
     </row>
     <row r="98">
@@ -4777,13 +4490,13 @@
         <v>2.91</v>
       </c>
       <c r="B98" t="n">
-        <v>0.733434</v>
+        <v>0.623698</v>
       </c>
       <c r="C98" t="n">
         <v>0.0291</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01466868</v>
+        <v>0.01247396</v>
       </c>
     </row>
     <row r="99">
@@ -4791,13 +4504,13 @@
         <v>2.94</v>
       </c>
       <c r="B99" t="n">
-        <v>0.740995</v>
+        <v>0.62699</v>
       </c>
       <c r="C99" t="n">
         <v>0.0294</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0148199</v>
+        <v>0.0125398</v>
       </c>
     </row>
     <row r="100">
@@ -4805,13 +4518,13 @@
         <v>2.97</v>
       </c>
       <c r="B100" t="n">
-        <v>0.74854</v>
+        <v>0.632871</v>
       </c>
       <c r="C100" t="n">
         <v>0.0297</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0149708</v>
+        <v>0.01265742</v>
       </c>
     </row>
     <row r="101">
@@ -4819,13 +4532,13 @@
         <v>3</v>
       </c>
       <c r="B101" t="n">
-        <v>0.755707</v>
+        <v>0.639028</v>
       </c>
       <c r="C101" t="n">
         <v>0.03</v>
       </c>
       <c r="D101" t="n">
-        <v>0.01511414</v>
+        <v>0.01278056</v>
       </c>
     </row>
   </sheetData>
@@ -4871,7 +4584,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>6\cfrp1\danmen=50\cf_tensile=800\6_c1_dan50_cft800.csv</t>
+          <t>6\cfrp1\danmen=50\cf_tensile=900\6_c1_dan50_cft900.csv</t>
         </is>
       </c>
     </row>
@@ -4880,13 +4593,13 @@
         <v>0.03</v>
       </c>
       <c r="B2" t="n">
-        <v>26.1835</v>
+        <v>43.4772</v>
       </c>
       <c r="C2" t="n">
         <v>0.0003</v>
       </c>
       <c r="D2" t="n">
-        <v>0.52367</v>
+        <v>0.8695440000000001</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -4894,7 +4607,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>26.1834</v>
+        <v>48.556</v>
       </c>
     </row>
     <row r="3">
@@ -4902,13 +4615,13 @@
         <v>0.06</v>
       </c>
       <c r="B3" t="n">
-        <v>52.3669</v>
+        <v>86.95440000000001</v>
       </c>
       <c r="C3" t="n">
         <v>0.0005999999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>1.047338</v>
+        <v>1.739088</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -4916,7 +4629,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1745.563888888889</v>
+        <v>2898.476666666666</v>
       </c>
     </row>
     <row r="4">
@@ -4924,13 +4637,13 @@
         <v>0.09</v>
       </c>
       <c r="B4" t="n">
-        <v>78.5504</v>
+        <v>130.432</v>
       </c>
       <c r="C4" t="n">
         <v>0.0008999999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>1.571008</v>
+        <v>2.60864</v>
       </c>
     </row>
     <row r="5">
@@ -4938,13 +4651,13 @@
         <v>0.12</v>
       </c>
       <c r="B5" t="n">
-        <v>104.734</v>
+        <v>173.909</v>
       </c>
       <c r="C5" t="n">
         <v>0.0012</v>
       </c>
       <c r="D5" t="n">
-        <v>2.09468</v>
+        <v>3.47818</v>
       </c>
     </row>
     <row r="6">
@@ -4952,13 +4665,13 @@
         <v>0.15</v>
       </c>
       <c r="B6" t="n">
-        <v>130.917</v>
+        <v>217.386</v>
       </c>
       <c r="C6" t="n">
         <v>0.0015</v>
       </c>
       <c r="D6" t="n">
-        <v>2.61834</v>
+        <v>4.34772</v>
       </c>
     </row>
     <row r="7">
@@ -4966,13 +4679,13 @@
         <v>0.18</v>
       </c>
       <c r="B7" t="n">
-        <v>157.101</v>
+        <v>260.863</v>
       </c>
       <c r="C7" t="n">
         <v>0.0018</v>
       </c>
       <c r="D7" t="n">
-        <v>3.14202</v>
+        <v>5.21726</v>
       </c>
     </row>
     <row r="8">
@@ -4980,13 +4693,13 @@
         <v>0.21</v>
       </c>
       <c r="B8" t="n">
-        <v>183.284</v>
+        <v>304.34</v>
       </c>
       <c r="C8" t="n">
         <v>0.0021</v>
       </c>
       <c r="D8" t="n">
-        <v>3.66568</v>
+        <v>6.086799999999999</v>
       </c>
     </row>
     <row r="9">
@@ -4994,13 +4707,13 @@
         <v>0.24</v>
       </c>
       <c r="B9" t="n">
-        <v>209.468</v>
+        <v>347.817</v>
       </c>
       <c r="C9" t="n">
         <v>0.0024</v>
       </c>
       <c r="D9" t="n">
-        <v>4.18936</v>
+        <v>6.95634</v>
       </c>
     </row>
     <row r="10">
@@ -5008,13 +4721,13 @@
         <v>0.27</v>
       </c>
       <c r="B10" t="n">
-        <v>235.651</v>
+        <v>391.295</v>
       </c>
       <c r="C10" t="n">
         <v>0.0027</v>
       </c>
       <c r="D10" t="n">
-        <v>4.71302</v>
+        <v>7.825900000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5022,13 +4735,13 @@
         <v>0.3</v>
       </c>
       <c r="B11" t="n">
-        <v>261.835</v>
+        <v>434.772</v>
       </c>
       <c r="C11" t="n">
         <v>0.003</v>
       </c>
       <c r="D11" t="n">
-        <v>5.2367</v>
+        <v>8.69544</v>
       </c>
     </row>
     <row r="12">
@@ -5036,13 +4749,13 @@
         <v>0.33</v>
       </c>
       <c r="B12" t="n">
-        <v>288.018</v>
+        <v>478.249</v>
       </c>
       <c r="C12" t="n">
         <v>0.0033</v>
       </c>
       <c r="D12" t="n">
-        <v>5.760359999999999</v>
+        <v>9.56498</v>
       </c>
     </row>
     <row r="13">
@@ -5050,13 +4763,13 @@
         <v>0.36</v>
       </c>
       <c r="B13" t="n">
-        <v>314.202</v>
+        <v>521.726</v>
       </c>
       <c r="C13" t="n">
         <v>0.003599999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>6.28404</v>
+        <v>10.43452</v>
       </c>
     </row>
     <row r="14">
@@ -5064,13 +4777,13 @@
         <v>0.39</v>
       </c>
       <c r="B14" t="n">
-        <v>340.385</v>
+        <v>565.203</v>
       </c>
       <c r="C14" t="n">
         <v>0.0039</v>
       </c>
       <c r="D14" t="n">
-        <v>6.8077</v>
+        <v>11.30406</v>
       </c>
     </row>
     <row r="15">
@@ -5078,13 +4791,13 @@
         <v>0.42</v>
       </c>
       <c r="B15" t="n">
-        <v>366.568</v>
+        <v>608.681</v>
       </c>
       <c r="C15" t="n">
         <v>0.0042</v>
       </c>
       <c r="D15" t="n">
-        <v>7.33136</v>
+        <v>12.17362</v>
       </c>
     </row>
     <row r="16">
@@ -5092,13 +4805,13 @@
         <v>0.45</v>
       </c>
       <c r="B16" t="n">
-        <v>392.752</v>
+        <v>652.158</v>
       </c>
       <c r="C16" t="n">
         <v>0.004500000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>7.85504</v>
+        <v>13.04316</v>
       </c>
     </row>
     <row r="17">
@@ -5106,13 +4819,13 @@
         <v>0.48</v>
       </c>
       <c r="B17" t="n">
-        <v>418.935</v>
+        <v>695.635</v>
       </c>
       <c r="C17" t="n">
         <v>0.0048</v>
       </c>
       <c r="D17" t="n">
-        <v>8.3787</v>
+        <v>13.9127</v>
       </c>
     </row>
     <row r="18">
@@ -5120,13 +4833,13 @@
         <v>0.51</v>
       </c>
       <c r="B18" t="n">
-        <v>445.119</v>
+        <v>739.112</v>
       </c>
       <c r="C18" t="n">
         <v>0.0051</v>
       </c>
       <c r="D18" t="n">
-        <v>8.902380000000001</v>
+        <v>14.78224</v>
       </c>
     </row>
     <row r="19">
@@ -5134,13 +4847,13 @@
         <v>0.54</v>
       </c>
       <c r="B19" t="n">
-        <v>471.302</v>
+        <v>782.5890000000001</v>
       </c>
       <c r="C19" t="n">
         <v>0.005399999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>9.42604</v>
+        <v>15.65178</v>
       </c>
     </row>
     <row r="20">
@@ -5148,13 +4861,13 @@
         <v>0.57</v>
       </c>
       <c r="B20" t="n">
-        <v>497.486</v>
+        <v>826.067</v>
       </c>
       <c r="C20" t="n">
         <v>0.005699999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>9.949719999999999</v>
+        <v>16.52134</v>
       </c>
     </row>
     <row r="21">
@@ -5162,13 +4875,13 @@
         <v>0.6</v>
       </c>
       <c r="B21" t="n">
-        <v>523.669</v>
+        <v>869.544</v>
       </c>
       <c r="C21" t="n">
         <v>0.005999999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>10.47338</v>
+        <v>17.39088</v>
       </c>
     </row>
     <row r="22">
@@ -5176,13 +4889,13 @@
         <v>0.63</v>
       </c>
       <c r="B22" t="n">
-        <v>549.853</v>
+        <v>913.021</v>
       </c>
       <c r="C22" t="n">
         <v>0.0063</v>
       </c>
       <c r="D22" t="n">
-        <v>10.99706</v>
+        <v>18.26042</v>
       </c>
     </row>
     <row r="23">
@@ -5190,13 +4903,13 @@
         <v>0.66</v>
       </c>
       <c r="B23" t="n">
-        <v>576.0359999999999</v>
+        <v>956.498</v>
       </c>
       <c r="C23" t="n">
         <v>0.0066</v>
       </c>
       <c r="D23" t="n">
-        <v>11.52072</v>
+        <v>19.12996</v>
       </c>
     </row>
     <row r="24">
@@ -5204,13 +4917,13 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>602.22</v>
+        <v>999.975</v>
       </c>
       <c r="C24" t="n">
         <v>0.006899999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>12.0444</v>
+        <v>19.9995</v>
       </c>
     </row>
     <row r="25">
@@ -5218,13 +4931,13 @@
         <v>0.72</v>
       </c>
       <c r="B25" t="n">
-        <v>628.403</v>
+        <v>1043.45</v>
       </c>
       <c r="C25" t="n">
         <v>0.007199999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>12.56806</v>
+        <v>20.869</v>
       </c>
     </row>
     <row r="26">
@@ -5232,13 +4945,13 @@
         <v>0.75</v>
       </c>
       <c r="B26" t="n">
-        <v>654.587</v>
+        <v>1086.93</v>
       </c>
       <c r="C26" t="n">
         <v>0.0075</v>
       </c>
       <c r="D26" t="n">
-        <v>13.09174</v>
+        <v>21.7386</v>
       </c>
     </row>
     <row r="27">
@@ -5246,13 +4959,13 @@
         <v>0.78</v>
       </c>
       <c r="B27" t="n">
-        <v>680.77</v>
+        <v>1130.41</v>
       </c>
       <c r="C27" t="n">
         <v>0.007800000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>13.6154</v>
+        <v>22.6082</v>
       </c>
     </row>
     <row r="28">
@@ -5260,13 +4973,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B28" t="n">
-        <v>706.954</v>
+        <v>1173.88</v>
       </c>
       <c r="C28" t="n">
         <v>0.0081</v>
       </c>
       <c r="D28" t="n">
-        <v>14.13908</v>
+        <v>23.4776</v>
       </c>
     </row>
     <row r="29">
@@ -5274,13 +4987,13 @@
         <v>0.84</v>
       </c>
       <c r="B29" t="n">
-        <v>733.1369999999999</v>
+        <v>1217.36</v>
       </c>
       <c r="C29" t="n">
         <v>0.008399999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>14.66274</v>
+        <v>24.3472</v>
       </c>
     </row>
     <row r="30">
@@ -5288,13 +5001,13 @@
         <v>0.87</v>
       </c>
       <c r="B30" t="n">
-        <v>759.3200000000001</v>
+        <v>1260.84</v>
       </c>
       <c r="C30" t="n">
         <v>0.008699999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>15.1864</v>
+        <v>25.2168</v>
       </c>
     </row>
     <row r="31">
@@ -5302,13 +5015,13 @@
         <v>0.9</v>
       </c>
       <c r="B31" t="n">
-        <v>785.504</v>
+        <v>1304.32</v>
       </c>
       <c r="C31" t="n">
         <v>0.009000000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>15.71008</v>
+        <v>26.0864</v>
       </c>
     </row>
     <row r="32">
@@ -5316,13 +5029,13 @@
         <v>0.93</v>
       </c>
       <c r="B32" t="n">
-        <v>811.687</v>
+        <v>1347.79</v>
       </c>
       <c r="C32" t="n">
         <v>0.009299999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>16.23374</v>
+        <v>26.9558</v>
       </c>
     </row>
     <row r="33">
@@ -5330,13 +5043,13 @@
         <v>0.96</v>
       </c>
       <c r="B33" t="n">
-        <v>837.871</v>
+        <v>1391.27</v>
       </c>
       <c r="C33" t="n">
         <v>0.009599999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>16.75742</v>
+        <v>27.8254</v>
       </c>
     </row>
     <row r="34">
@@ -5344,13 +5057,13 @@
         <v>0.99</v>
       </c>
       <c r="B34" t="n">
-        <v>864.054</v>
+        <v>1434.75</v>
       </c>
       <c r="C34" t="n">
         <v>0.009899999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>17.28108</v>
+        <v>28.695</v>
       </c>
     </row>
     <row r="35">
@@ -5358,13 +5071,13 @@
         <v>1.02</v>
       </c>
       <c r="B35" t="n">
-        <v>890.2380000000001</v>
+        <v>1478.22</v>
       </c>
       <c r="C35" t="n">
         <v>0.0102</v>
       </c>
       <c r="D35" t="n">
-        <v>17.80476</v>
+        <v>29.5644</v>
       </c>
     </row>
     <row r="36">
@@ -5372,13 +5085,13 @@
         <v>1.05</v>
       </c>
       <c r="B36" t="n">
-        <v>916.421</v>
+        <v>1521.7</v>
       </c>
       <c r="C36" t="n">
         <v>0.0105</v>
       </c>
       <c r="D36" t="n">
-        <v>18.32842</v>
+        <v>30.434</v>
       </c>
     </row>
     <row r="37">
@@ -5386,13 +5099,13 @@
         <v>1.08</v>
       </c>
       <c r="B37" t="n">
-        <v>942.605</v>
+        <v>1565.18</v>
       </c>
       <c r="C37" t="n">
         <v>0.0108</v>
       </c>
       <c r="D37" t="n">
-        <v>18.8521</v>
+        <v>31.3036</v>
       </c>
     </row>
     <row r="38">
@@ -5400,13 +5113,13 @@
         <v>1.11</v>
       </c>
       <c r="B38" t="n">
-        <v>968.788</v>
+        <v>1608.66</v>
       </c>
       <c r="C38" t="n">
         <v>0.0111</v>
       </c>
       <c r="D38" t="n">
-        <v>19.37576</v>
+        <v>32.1732</v>
       </c>
     </row>
     <row r="39">
@@ -5414,13 +5127,13 @@
         <v>1.14</v>
       </c>
       <c r="B39" t="n">
-        <v>994.972</v>
+        <v>1652.13</v>
       </c>
       <c r="C39" t="n">
         <v>0.0114</v>
       </c>
       <c r="D39" t="n">
-        <v>19.89944</v>
+        <v>33.0426</v>
       </c>
     </row>
     <row r="40">
@@ -5428,13 +5141,13 @@
         <v>1.17</v>
       </c>
       <c r="B40" t="n">
-        <v>1021.16</v>
+        <v>1695.61</v>
       </c>
       <c r="C40" t="n">
         <v>0.0117</v>
       </c>
       <c r="D40" t="n">
-        <v>20.4232</v>
+        <v>33.9122</v>
       </c>
     </row>
     <row r="41">
@@ -5442,13 +5155,13 @@
         <v>1.2</v>
       </c>
       <c r="B41" t="n">
-        <v>1047.34</v>
+        <v>1739.09</v>
       </c>
       <c r="C41" t="n">
         <v>0.012</v>
       </c>
       <c r="D41" t="n">
-        <v>20.9468</v>
+        <v>34.7818</v>
       </c>
     </row>
     <row r="42">
@@ -5456,13 +5169,13 @@
         <v>1.23</v>
       </c>
       <c r="B42" t="n">
-        <v>1073.52</v>
+        <v>1782.56</v>
       </c>
       <c r="C42" t="n">
         <v>0.0123</v>
       </c>
       <c r="D42" t="n">
-        <v>21.4704</v>
+        <v>35.6512</v>
       </c>
     </row>
     <row r="43">
@@ -5470,13 +5183,13 @@
         <v>1.26</v>
       </c>
       <c r="B43" t="n">
-        <v>1099.71</v>
+        <v>1826.04</v>
       </c>
       <c r="C43" t="n">
         <v>0.0126</v>
       </c>
       <c r="D43" t="n">
-        <v>21.9942</v>
+        <v>36.5208</v>
       </c>
     </row>
     <row r="44">
@@ -5484,13 +5197,13 @@
         <v>1.29</v>
       </c>
       <c r="B44" t="n">
-        <v>1125.89</v>
+        <v>1869.52</v>
       </c>
       <c r="C44" t="n">
         <v>0.0129</v>
       </c>
       <c r="D44" t="n">
-        <v>22.5178</v>
+        <v>37.3904</v>
       </c>
     </row>
     <row r="45">
@@ -5498,13 +5211,13 @@
         <v>1.32</v>
       </c>
       <c r="B45" t="n">
-        <v>1152.07</v>
+        <v>1913</v>
       </c>
       <c r="C45" t="n">
         <v>0.0132</v>
       </c>
       <c r="D45" t="n">
-        <v>23.0414</v>
+        <v>38.26</v>
       </c>
     </row>
     <row r="46">
@@ -5512,13 +5225,13 @@
         <v>1.35</v>
       </c>
       <c r="B46" t="n">
-        <v>1178.26</v>
+        <v>1956.47</v>
       </c>
       <c r="C46" t="n">
         <v>0.0135</v>
       </c>
       <c r="D46" t="n">
-        <v>23.5652</v>
+        <v>39.1294</v>
       </c>
     </row>
     <row r="47">
@@ -5526,13 +5239,13 @@
         <v>1.38</v>
       </c>
       <c r="B47" t="n">
-        <v>1204.44</v>
+        <v>1999.95</v>
       </c>
       <c r="C47" t="n">
         <v>0.0138</v>
       </c>
       <c r="D47" t="n">
-        <v>24.0888</v>
+        <v>39.999</v>
       </c>
     </row>
     <row r="48">
@@ -5540,13 +5253,13 @@
         <v>1.41</v>
       </c>
       <c r="B48" t="n">
-        <v>1230.62</v>
+        <v>2043.43</v>
       </c>
       <c r="C48" t="n">
         <v>0.0141</v>
       </c>
       <c r="D48" t="n">
-        <v>24.6124</v>
+        <v>40.8686</v>
       </c>
     </row>
     <row r="49">
@@ -5554,13 +5267,13 @@
         <v>1.44</v>
       </c>
       <c r="B49" t="n">
-        <v>1256.81</v>
+        <v>2086.9</v>
       </c>
       <c r="C49" t="n">
         <v>0.0144</v>
       </c>
       <c r="D49" t="n">
-        <v>25.1362</v>
+        <v>41.738</v>
       </c>
     </row>
     <row r="50">
@@ -5568,13 +5281,13 @@
         <v>1.47</v>
       </c>
       <c r="B50" t="n">
-        <v>1282.99</v>
+        <v>2130.38</v>
       </c>
       <c r="C50" t="n">
         <v>0.0147</v>
       </c>
       <c r="D50" t="n">
-        <v>25.6598</v>
+        <v>42.60760000000001</v>
       </c>
     </row>
     <row r="51">
@@ -5582,13 +5295,13 @@
         <v>1.5</v>
       </c>
       <c r="B51" t="n">
-        <v>1309.17</v>
+        <v>2173.86</v>
       </c>
       <c r="C51" t="n">
         <v>0.015</v>
       </c>
       <c r="D51" t="n">
-        <v>26.1834</v>
+        <v>43.4772</v>
       </c>
     </row>
     <row r="52">
@@ -5596,13 +5309,13 @@
         <v>1.53</v>
       </c>
       <c r="B52" t="n">
-        <v>845.622</v>
+        <v>2217.34</v>
       </c>
       <c r="C52" t="n">
         <v>0.0153</v>
       </c>
       <c r="D52" t="n">
-        <v>16.91244</v>
+        <v>44.3468</v>
       </c>
     </row>
     <row r="53">
@@ -5610,13 +5323,13 @@
         <v>1.56</v>
       </c>
       <c r="B53" t="n">
-        <v>862.203</v>
+        <v>2260.81</v>
       </c>
       <c r="C53" t="n">
         <v>0.0156</v>
       </c>
       <c r="D53" t="n">
-        <v>17.24406</v>
+        <v>45.2162</v>
       </c>
     </row>
     <row r="54">
@@ -5624,13 +5337,13 @@
         <v>1.59</v>
       </c>
       <c r="B54" t="n">
-        <v>878.784</v>
+        <v>2304.29</v>
       </c>
       <c r="C54" t="n">
         <v>0.0159</v>
       </c>
       <c r="D54" t="n">
-        <v>17.57568</v>
+        <v>46.0858</v>
       </c>
     </row>
     <row r="55">
@@ -5638,13 +5351,13 @@
         <v>1.62</v>
       </c>
       <c r="B55" t="n">
-        <v>895.364</v>
+        <v>2347.69</v>
       </c>
       <c r="C55" t="n">
         <v>0.0162</v>
       </c>
       <c r="D55" t="n">
-        <v>17.90728</v>
+        <v>46.9538</v>
       </c>
     </row>
     <row r="56">
@@ -5652,13 +5365,13 @@
         <v>1.65</v>
       </c>
       <c r="B56" t="n">
-        <v>911.853</v>
+        <v>2390.05</v>
       </c>
       <c r="C56" t="n">
         <v>0.0165</v>
       </c>
       <c r="D56" t="n">
-        <v>18.23706</v>
+        <v>47.801</v>
       </c>
     </row>
     <row r="57">
@@ -5666,13 +5379,13 @@
         <v>1.68</v>
       </c>
       <c r="B57" t="n">
-        <v>926.997</v>
+        <v>2427.8</v>
       </c>
       <c r="C57" t="n">
         <v>0.0168</v>
       </c>
       <c r="D57" t="n">
-        <v>18.53994</v>
+        <v>48.556</v>
       </c>
     </row>
     <row r="58">
@@ -5680,13 +5393,13 @@
         <v>1.71</v>
       </c>
       <c r="B58" t="n">
-        <v>932.7859999999999</v>
+        <v>903.99</v>
       </c>
       <c r="C58" t="n">
         <v>0.0171</v>
       </c>
       <c r="D58" t="n">
-        <v>18.65572</v>
+        <v>18.0798</v>
       </c>
     </row>
     <row r="59">
@@ -5694,13 +5407,13 @@
         <v>1.74</v>
       </c>
       <c r="B59" t="n">
-        <v>841.65</v>
+        <v>627.925</v>
       </c>
       <c r="C59" t="n">
         <v>0.0174</v>
       </c>
       <c r="D59" t="n">
-        <v>16.833</v>
+        <v>12.5585</v>
       </c>
     </row>
     <row r="60">
@@ -5708,13 +5421,13 @@
         <v>1.77</v>
       </c>
       <c r="B60" t="n">
-        <v>590.26</v>
+        <v>51.0762</v>
       </c>
       <c r="C60" t="n">
         <v>0.0177</v>
       </c>
       <c r="D60" t="n">
-        <v>11.8052</v>
+        <v>1.021524</v>
       </c>
     </row>
     <row r="61">
@@ -5722,13 +5435,13 @@
         <v>1.8</v>
       </c>
       <c r="B61" t="n">
-        <v>301.653</v>
+        <v>2.51255</v>
       </c>
       <c r="C61" t="n">
         <v>0.018</v>
       </c>
       <c r="D61" t="n">
-        <v>6.033060000000001</v>
+        <v>0.050251</v>
       </c>
     </row>
     <row r="62">
@@ -5736,13 +5449,13 @@
         <v>1.83</v>
       </c>
       <c r="B62" t="n">
-        <v>124.218</v>
+        <v>1.15541</v>
       </c>
       <c r="C62" t="n">
         <v>0.0183</v>
       </c>
       <c r="D62" t="n">
-        <v>2.48436</v>
+        <v>0.0231082</v>
       </c>
     </row>
     <row r="63">
@@ -5750,13 +5463,13 @@
         <v>1.86</v>
       </c>
       <c r="B63" t="n">
-        <v>0.590261</v>
+        <v>1.05325</v>
       </c>
       <c r="C63" t="n">
         <v>0.0186</v>
       </c>
       <c r="D63" t="n">
-        <v>0.01180522</v>
+        <v>0.021065</v>
       </c>
     </row>
     <row r="64">
@@ -5764,13 +5477,13 @@
         <v>1.89</v>
       </c>
       <c r="B64" t="n">
-        <v>0.451948</v>
+        <v>1.05859</v>
       </c>
       <c r="C64" t="n">
         <v>0.0189</v>
       </c>
       <c r="D64" t="n">
-        <v>0.00903896</v>
+        <v>0.0211718</v>
       </c>
     </row>
     <row r="65">
@@ -5778,13 +5491,13 @@
         <v>1.92</v>
       </c>
       <c r="B65" t="n">
-        <v>0.433543</v>
+        <v>1.07153</v>
       </c>
       <c r="C65" t="n">
         <v>0.0192</v>
       </c>
       <c r="D65" t="n">
-        <v>0.008670860000000001</v>
+        <v>0.0214306</v>
       </c>
     </row>
     <row r="66">
@@ -5792,13 +5505,13 @@
         <v>1.95</v>
       </c>
       <c r="B66" t="n">
-        <v>0.428129</v>
+        <v>1.08509</v>
       </c>
       <c r="C66" t="n">
         <v>0.0195</v>
       </c>
       <c r="D66" t="n">
-        <v>0.00856258</v>
+        <v>0.0217018</v>
       </c>
     </row>
     <row r="67">
@@ -5806,13 +5519,13 @@
         <v>1.98</v>
       </c>
       <c r="B67" t="n">
-        <v>0.418726</v>
+        <v>1.10141</v>
       </c>
       <c r="C67" t="n">
         <v>0.0198</v>
       </c>
       <c r="D67" t="n">
-        <v>0.00837452</v>
+        <v>0.0220282</v>
       </c>
     </row>
     <row r="68">
@@ -5820,13 +5533,13 @@
         <v>2.01</v>
       </c>
       <c r="B68" t="n">
-        <v>0.424412</v>
+        <v>1.1181</v>
       </c>
       <c r="C68" t="n">
         <v>0.0201</v>
       </c>
       <c r="D68" t="n">
-        <v>0.008488240000000001</v>
+        <v>0.022362</v>
       </c>
     </row>
     <row r="69">
@@ -5834,13 +5547,13 @@
         <v>2.04</v>
       </c>
       <c r="B69" t="n">
-        <v>0.430173</v>
+        <v>1.12412</v>
       </c>
       <c r="C69" t="n">
         <v>0.0204</v>
       </c>
       <c r="D69" t="n">
-        <v>0.00860346</v>
+        <v>0.0224824</v>
       </c>
     </row>
     <row r="70">
@@ -5848,13 +5561,13 @@
         <v>2.07</v>
       </c>
       <c r="B70" t="n">
-        <v>0.436343</v>
+        <v>1.13854</v>
       </c>
       <c r="C70" t="n">
         <v>0.0207</v>
       </c>
       <c r="D70" t="n">
-        <v>0.008726859999999999</v>
+        <v>0.0227708</v>
       </c>
     </row>
     <row r="71">
@@ -5862,13 +5575,13 @@
         <v>2.1</v>
       </c>
       <c r="B71" t="n">
-        <v>0.442532</v>
+        <v>1.15429</v>
       </c>
       <c r="C71" t="n">
         <v>0.021</v>
       </c>
       <c r="D71" t="n">
-        <v>0.00885064</v>
+        <v>0.0230858</v>
       </c>
     </row>
     <row r="72">
@@ -5876,13 +5589,13 @@
         <v>2.13</v>
       </c>
       <c r="B72" t="n">
-        <v>0.448801</v>
+        <v>1.17078</v>
       </c>
       <c r="C72" t="n">
         <v>0.0213</v>
       </c>
       <c r="D72" t="n">
-        <v>0.008976019999999999</v>
+        <v>0.0234156</v>
       </c>
     </row>
     <row r="73">
@@ -5890,13 +5603,13 @@
         <v>2.16</v>
       </c>
       <c r="B73" t="n">
-        <v>0.455112</v>
+        <v>1.17183</v>
       </c>
       <c r="C73" t="n">
         <v>0.0216</v>
       </c>
       <c r="D73" t="n">
-        <v>0.009102240000000001</v>
+        <v>0.0234366</v>
       </c>
     </row>
     <row r="74">
@@ -5904,13 +5617,13 @@
         <v>2.19</v>
       </c>
       <c r="B74" t="n">
-        <v>0.461028</v>
+        <v>1.18373</v>
       </c>
       <c r="C74" t="n">
         <v>0.0219</v>
       </c>
       <c r="D74" t="n">
-        <v>0.009220559999999999</v>
+        <v>0.0236746</v>
       </c>
     </row>
     <row r="75">
@@ -5918,13 +5631,13 @@
         <v>2.22</v>
       </c>
       <c r="B75" t="n">
-        <v>0.467094</v>
+        <v>1.19957</v>
       </c>
       <c r="C75" t="n">
         <v>0.0222</v>
       </c>
       <c r="D75" t="n">
-        <v>0.00934188</v>
+        <v>0.0239914</v>
       </c>
     </row>
     <row r="76">
@@ -5932,13 +5645,13 @@
         <v>2.25</v>
       </c>
       <c r="B76" t="n">
-        <v>0.473114</v>
+        <v>1.06435</v>
       </c>
       <c r="C76" t="n">
         <v>0.0225</v>
       </c>
       <c r="D76" t="n">
-        <v>0.00946228</v>
+        <v>0.021287</v>
       </c>
     </row>
     <row r="77">
@@ -5946,13 +5659,13 @@
         <v>2.28</v>
       </c>
       <c r="B77" t="n">
-        <v>0.479391</v>
+        <v>1.05381</v>
       </c>
       <c r="C77" t="n">
         <v>0.0228</v>
       </c>
       <c r="D77" t="n">
-        <v>0.00958782</v>
+        <v>0.0210762</v>
       </c>
     </row>
     <row r="78">
@@ -5960,13 +5673,13 @@
         <v>2.31</v>
       </c>
       <c r="B78" t="n">
-        <v>0.485045</v>
+        <v>1.06167</v>
       </c>
       <c r="C78" t="n">
         <v>0.0231</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0097009</v>
+        <v>0.0212334</v>
       </c>
     </row>
     <row r="79">
@@ -5974,13 +5687,13 @@
         <v>2.34</v>
       </c>
       <c r="B79" t="n">
-        <v>0.490873</v>
+        <v>1.07542</v>
       </c>
       <c r="C79" t="n">
         <v>0.0234</v>
       </c>
       <c r="D79" t="n">
-        <v>0.00981746</v>
+        <v>0.0215084</v>
       </c>
     </row>
     <row r="80">
@@ -5988,13 +5701,13 @@
         <v>2.37</v>
       </c>
       <c r="B80" t="n">
-        <v>0.496291</v>
+        <v>1.08921</v>
       </c>
       <c r="C80" t="n">
         <v>0.0237</v>
       </c>
       <c r="D80" t="n">
-        <v>0.00992582</v>
+        <v>0.0217842</v>
       </c>
     </row>
     <row r="81">
@@ -6002,13 +5715,13 @@
         <v>2.4</v>
       </c>
       <c r="B81" t="n">
-        <v>0.502048</v>
+        <v>1.103</v>
       </c>
       <c r="C81" t="n">
         <v>0.024</v>
       </c>
       <c r="D81" t="n">
-        <v>0.01004096</v>
+        <v>0.02206</v>
       </c>
     </row>
     <row r="82">
@@ -6016,13 +5729,13 @@
         <v>2.43</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5074109999999999</v>
+        <v>1.11678</v>
       </c>
       <c r="C82" t="n">
         <v>0.0243</v>
       </c>
       <c r="D82" t="n">
-        <v>0.01014822</v>
+        <v>0.0223356</v>
       </c>
     </row>
     <row r="83">
@@ -6030,13 +5743,13 @@
         <v>2.46</v>
       </c>
       <c r="B83" t="n">
-        <v>0.512641</v>
+        <v>1.13057</v>
       </c>
       <c r="C83" t="n">
         <v>0.0246</v>
       </c>
       <c r="D83" t="n">
-        <v>0.01025282</v>
+        <v>0.0226114</v>
       </c>
     </row>
     <row r="84">
@@ -6044,13 +5757,13 @@
         <v>2.49</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5168</v>
+        <v>1.14436</v>
       </c>
       <c r="C84" t="n">
         <v>0.0249</v>
       </c>
       <c r="D84" t="n">
-        <v>0.010336</v>
+        <v>0.0228872</v>
       </c>
     </row>
     <row r="85">
@@ -6058,13 +5771,13 @@
         <v>2.52</v>
       </c>
       <c r="B85" t="n">
-        <v>0.522819</v>
+        <v>1.15541</v>
       </c>
       <c r="C85" t="n">
         <v>0.0252</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01045638</v>
+        <v>0.0231082</v>
       </c>
     </row>
     <row r="86">
@@ -6072,13 +5785,13 @@
         <v>2.55</v>
       </c>
       <c r="B86" t="n">
-        <v>0.528967</v>
+        <v>1.16897</v>
       </c>
       <c r="C86" t="n">
         <v>0.02549999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.01057934</v>
+        <v>0.0233794</v>
       </c>
     </row>
     <row r="87">
@@ -6086,13 +5799,13 @@
         <v>2.58</v>
       </c>
       <c r="B87" t="n">
-        <v>0.535094</v>
+        <v>1.18273</v>
       </c>
       <c r="C87" t="n">
         <v>0.0258</v>
       </c>
       <c r="D87" t="n">
-        <v>0.01070188</v>
+        <v>0.0236546</v>
       </c>
     </row>
     <row r="88">
@@ -6100,13 +5813,13 @@
         <v>2.61</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5412</v>
+        <v>1.19648</v>
       </c>
       <c r="C88" t="n">
         <v>0.0261</v>
       </c>
       <c r="D88" t="n">
-        <v>0.010824</v>
+        <v>0.0239296</v>
       </c>
     </row>
     <row r="89">
@@ -6114,13 +5827,13 @@
         <v>2.64</v>
       </c>
       <c r="B89" t="n">
-        <v>0.547274</v>
+        <v>1.21018</v>
       </c>
       <c r="C89" t="n">
         <v>0.0264</v>
       </c>
       <c r="D89" t="n">
-        <v>0.01094548</v>
+        <v>0.0242036</v>
       </c>
     </row>
     <row r="90">
@@ -6128,13 +5841,13 @@
         <v>2.67</v>
       </c>
       <c r="B90" t="n">
-        <v>0.553073</v>
+        <v>1.22393</v>
       </c>
       <c r="C90" t="n">
         <v>0.0267</v>
       </c>
       <c r="D90" t="n">
-        <v>0.01106146</v>
+        <v>0.0244786</v>
       </c>
     </row>
     <row r="91">
@@ -6142,13 +5855,13 @@
         <v>2.7</v>
       </c>
       <c r="B91" t="n">
-        <v>0.558802</v>
+        <v>1.23752</v>
       </c>
       <c r="C91" t="n">
         <v>0.027</v>
       </c>
       <c r="D91" t="n">
-        <v>0.01117604</v>
+        <v>0.0247504</v>
       </c>
     </row>
     <row r="92">
@@ -6156,13 +5869,13 @@
         <v>2.73</v>
       </c>
       <c r="B92" t="n">
-        <v>0.564485</v>
+        <v>1.25127</v>
       </c>
       <c r="C92" t="n">
         <v>0.0273</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0112897</v>
+        <v>0.0250254</v>
       </c>
     </row>
     <row r="93">
@@ -6170,13 +5883,13 @@
         <v>2.76</v>
       </c>
       <c r="B93" t="n">
-        <v>0.57013</v>
+        <v>1.26435</v>
       </c>
       <c r="C93" t="n">
         <v>0.0276</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0114026</v>
+        <v>0.025287</v>
       </c>
     </row>
     <row r="94">
@@ -6184,13 +5897,13 @@
         <v>2.79</v>
       </c>
       <c r="B94" t="n">
-        <v>0.575467</v>
+        <v>1.278</v>
       </c>
       <c r="C94" t="n">
         <v>0.0279</v>
       </c>
       <c r="D94" t="n">
-        <v>0.01150934</v>
+        <v>0.02556</v>
       </c>
     </row>
     <row r="95">
@@ -6198,13 +5911,13 @@
         <v>2.82</v>
       </c>
       <c r="B95" t="n">
-        <v>0.580002</v>
+        <v>1.29115</v>
       </c>
       <c r="C95" t="n">
         <v>0.0282</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01160004</v>
+        <v>0.025823</v>
       </c>
     </row>
     <row r="96">
@@ -6212,13 +5925,13 @@
         <v>2.85</v>
       </c>
       <c r="B96" t="n">
-        <v>0.585797</v>
+        <v>1.30145</v>
       </c>
       <c r="C96" t="n">
         <v>0.0285</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01171594</v>
+        <v>0.026029</v>
       </c>
     </row>
     <row r="97">
@@ -6226,13 +5939,13 @@
         <v>2.88</v>
       </c>
       <c r="B97" t="n">
-        <v>0.591884</v>
+        <v>1.31515</v>
       </c>
       <c r="C97" t="n">
         <v>0.0288</v>
       </c>
       <c r="D97" t="n">
-        <v>0.01183768</v>
+        <v>0.026303</v>
       </c>
     </row>
     <row r="98">
@@ -6240,13 +5953,13 @@
         <v>2.91</v>
       </c>
       <c r="B98" t="n">
-        <v>0.598028</v>
+        <v>1.31384</v>
       </c>
       <c r="C98" t="n">
         <v>0.0291</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01196056</v>
+        <v>0.0262768</v>
       </c>
     </row>
     <row r="99">
@@ -6254,13 +5967,13 @@
         <v>2.94</v>
       </c>
       <c r="B99" t="n">
-        <v>0.603603</v>
+        <v>1.32689</v>
       </c>
       <c r="C99" t="n">
         <v>0.0294</v>
       </c>
       <c r="D99" t="n">
-        <v>0.01207206</v>
+        <v>0.0265378</v>
       </c>
     </row>
     <row r="100">
@@ -6268,13 +5981,13 @@
         <v>2.97</v>
       </c>
       <c r="B100" t="n">
-        <v>0.605441</v>
+        <v>1.34043</v>
       </c>
       <c r="C100" t="n">
         <v>0.0297</v>
       </c>
       <c r="D100" t="n">
-        <v>0.01210882</v>
+        <v>0.0268086</v>
       </c>
     </row>
     <row r="101">
@@ -6282,13 +5995,13 @@
         <v>3</v>
       </c>
       <c r="B101" t="n">
-        <v>0.601656</v>
+        <v>1.35108</v>
       </c>
       <c r="C101" t="n">
         <v>0.03</v>
       </c>
       <c r="D101" t="n">
-        <v>0.01203312</v>
+        <v>0.0270216</v>
       </c>
     </row>
   </sheetData>
@@ -6334,7 +6047,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>6\cfrp1\danmen=50\cf_tensile=900\6_c1_dan50_cft900.csv</t>
+          <t>6\cfrp1\danmen=50\cf_tensile=970\6_c1_dan50_cft970.csv</t>
         </is>
       </c>
     </row>
@@ -6343,13 +6056,13 @@
         <v>0.03</v>
       </c>
       <c r="B2" t="n">
-        <v>26.1835</v>
+        <v>43.4772</v>
       </c>
       <c r="C2" t="n">
         <v>0.0003</v>
       </c>
       <c r="D2" t="n">
-        <v>0.52367</v>
+        <v>0.8695440000000001</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -6357,7 +6070,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>29.2686</v>
+        <v>48.86859999999999</v>
       </c>
     </row>
     <row r="3">
@@ -6365,13 +6078,13 @@
         <v>0.06</v>
       </c>
       <c r="B3" t="n">
-        <v>52.3669</v>
+        <v>86.95440000000001</v>
       </c>
       <c r="C3" t="n">
         <v>0.0005999999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>1.047338</v>
+        <v>1.739088</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -6379,7 +6092,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1745.563888888889</v>
+        <v>2898.476666666666</v>
       </c>
     </row>
     <row r="4">
@@ -6387,13 +6100,13 @@
         <v>0.09</v>
       </c>
       <c r="B4" t="n">
-        <v>78.5504</v>
+        <v>130.432</v>
       </c>
       <c r="C4" t="n">
         <v>0.0008999999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>1.571008</v>
+        <v>2.60864</v>
       </c>
     </row>
     <row r="5">
@@ -6401,13 +6114,13 @@
         <v>0.12</v>
       </c>
       <c r="B5" t="n">
-        <v>104.734</v>
+        <v>173.909</v>
       </c>
       <c r="C5" t="n">
         <v>0.0012</v>
       </c>
       <c r="D5" t="n">
-        <v>2.09468</v>
+        <v>3.47818</v>
       </c>
     </row>
     <row r="6">
@@ -6415,13 +6128,13 @@
         <v>0.15</v>
       </c>
       <c r="B6" t="n">
-        <v>130.917</v>
+        <v>217.386</v>
       </c>
       <c r="C6" t="n">
         <v>0.0015</v>
       </c>
       <c r="D6" t="n">
-        <v>2.61834</v>
+        <v>4.34772</v>
       </c>
     </row>
     <row r="7">
@@ -6429,13 +6142,13 @@
         <v>0.18</v>
       </c>
       <c r="B7" t="n">
-        <v>157.101</v>
+        <v>260.863</v>
       </c>
       <c r="C7" t="n">
         <v>0.0018</v>
       </c>
       <c r="D7" t="n">
-        <v>3.14202</v>
+        <v>5.21726</v>
       </c>
     </row>
     <row r="8">
@@ -6443,13 +6156,13 @@
         <v>0.21</v>
       </c>
       <c r="B8" t="n">
-        <v>183.284</v>
+        <v>304.34</v>
       </c>
       <c r="C8" t="n">
         <v>0.0021</v>
       </c>
       <c r="D8" t="n">
-        <v>3.66568</v>
+        <v>6.086799999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6457,13 +6170,13 @@
         <v>0.24</v>
       </c>
       <c r="B9" t="n">
-        <v>209.468</v>
+        <v>347.817</v>
       </c>
       <c r="C9" t="n">
         <v>0.0024</v>
       </c>
       <c r="D9" t="n">
-        <v>4.18936</v>
+        <v>6.95634</v>
       </c>
     </row>
     <row r="10">
@@ -6471,13 +6184,13 @@
         <v>0.27</v>
       </c>
       <c r="B10" t="n">
-        <v>235.651</v>
+        <v>391.295</v>
       </c>
       <c r="C10" t="n">
         <v>0.0027</v>
       </c>
       <c r="D10" t="n">
-        <v>4.71302</v>
+        <v>7.825900000000001</v>
       </c>
     </row>
     <row r="11">
@@ -6485,13 +6198,13 @@
         <v>0.3</v>
       </c>
       <c r="B11" t="n">
-        <v>261.835</v>
+        <v>434.772</v>
       </c>
       <c r="C11" t="n">
         <v>0.003</v>
       </c>
       <c r="D11" t="n">
-        <v>5.2367</v>
+        <v>8.69544</v>
       </c>
     </row>
     <row r="12">
@@ -6499,13 +6212,13 @@
         <v>0.33</v>
       </c>
       <c r="B12" t="n">
-        <v>288.018</v>
+        <v>478.249</v>
       </c>
       <c r="C12" t="n">
         <v>0.0033</v>
       </c>
       <c r="D12" t="n">
-        <v>5.760359999999999</v>
+        <v>9.56498</v>
       </c>
     </row>
     <row r="13">
@@ -6513,13 +6226,13 @@
         <v>0.36</v>
       </c>
       <c r="B13" t="n">
-        <v>314.202</v>
+        <v>521.726</v>
       </c>
       <c r="C13" t="n">
         <v>0.003599999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>6.28404</v>
+        <v>10.43452</v>
       </c>
     </row>
     <row r="14">
@@ -6527,13 +6240,13 @@
         <v>0.39</v>
       </c>
       <c r="B14" t="n">
-        <v>340.385</v>
+        <v>565.203</v>
       </c>
       <c r="C14" t="n">
         <v>0.0039</v>
       </c>
       <c r="D14" t="n">
-        <v>6.8077</v>
+        <v>11.30406</v>
       </c>
     </row>
     <row r="15">
@@ -6541,13 +6254,13 @@
         <v>0.42</v>
       </c>
       <c r="B15" t="n">
-        <v>366.568</v>
+        <v>608.681</v>
       </c>
       <c r="C15" t="n">
         <v>0.0042</v>
       </c>
       <c r="D15" t="n">
-        <v>7.33136</v>
+        <v>12.17362</v>
       </c>
     </row>
     <row r="16">
@@ -6555,13 +6268,13 @@
         <v>0.45</v>
       </c>
       <c r="B16" t="n">
-        <v>392.752</v>
+        <v>652.158</v>
       </c>
       <c r="C16" t="n">
         <v>0.004500000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>7.85504</v>
+        <v>13.04316</v>
       </c>
     </row>
     <row r="17">
@@ -6569,13 +6282,13 @@
         <v>0.48</v>
       </c>
       <c r="B17" t="n">
-        <v>418.935</v>
+        <v>695.635</v>
       </c>
       <c r="C17" t="n">
         <v>0.0048</v>
       </c>
       <c r="D17" t="n">
-        <v>8.3787</v>
+        <v>13.9127</v>
       </c>
     </row>
     <row r="18">
@@ -6583,13 +6296,13 @@
         <v>0.51</v>
       </c>
       <c r="B18" t="n">
-        <v>445.119</v>
+        <v>739.112</v>
       </c>
       <c r="C18" t="n">
         <v>0.0051</v>
       </c>
       <c r="D18" t="n">
-        <v>8.902380000000001</v>
+        <v>14.78224</v>
       </c>
     </row>
     <row r="19">
@@ -6597,13 +6310,13 @@
         <v>0.54</v>
       </c>
       <c r="B19" t="n">
-        <v>471.302</v>
+        <v>782.5890000000001</v>
       </c>
       <c r="C19" t="n">
         <v>0.005399999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>9.42604</v>
+        <v>15.65178</v>
       </c>
     </row>
     <row r="20">
@@ -6611,13 +6324,13 @@
         <v>0.57</v>
       </c>
       <c r="B20" t="n">
-        <v>497.486</v>
+        <v>826.067</v>
       </c>
       <c r="C20" t="n">
         <v>0.005699999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>9.949719999999999</v>
+        <v>16.52134</v>
       </c>
     </row>
     <row r="21">
@@ -6625,13 +6338,13 @@
         <v>0.6</v>
       </c>
       <c r="B21" t="n">
-        <v>523.669</v>
+        <v>869.544</v>
       </c>
       <c r="C21" t="n">
         <v>0.005999999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>10.47338</v>
+        <v>17.39088</v>
       </c>
     </row>
     <row r="22">
@@ -6639,13 +6352,13 @@
         <v>0.63</v>
       </c>
       <c r="B22" t="n">
-        <v>549.853</v>
+        <v>913.021</v>
       </c>
       <c r="C22" t="n">
         <v>0.0063</v>
       </c>
       <c r="D22" t="n">
-        <v>10.99706</v>
+        <v>18.26042</v>
       </c>
     </row>
     <row r="23">
@@ -6653,13 +6366,13 @@
         <v>0.66</v>
       </c>
       <c r="B23" t="n">
-        <v>576.0359999999999</v>
+        <v>956.498</v>
       </c>
       <c r="C23" t="n">
         <v>0.0066</v>
       </c>
       <c r="D23" t="n">
-        <v>11.52072</v>
+        <v>19.12996</v>
       </c>
     </row>
     <row r="24">
@@ -6667,13 +6380,13 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>602.22</v>
+        <v>999.975</v>
       </c>
       <c r="C24" t="n">
         <v>0.006899999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>12.0444</v>
+        <v>19.9995</v>
       </c>
     </row>
     <row r="25">
@@ -6681,13 +6394,13 @@
         <v>0.72</v>
       </c>
       <c r="B25" t="n">
-        <v>628.403</v>
+        <v>1043.45</v>
       </c>
       <c r="C25" t="n">
         <v>0.007199999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>12.56806</v>
+        <v>20.869</v>
       </c>
     </row>
     <row r="26">
@@ -6695,13 +6408,13 @@
         <v>0.75</v>
       </c>
       <c r="B26" t="n">
-        <v>654.587</v>
+        <v>1086.93</v>
       </c>
       <c r="C26" t="n">
         <v>0.0075</v>
       </c>
       <c r="D26" t="n">
-        <v>13.09174</v>
+        <v>21.7386</v>
       </c>
     </row>
     <row r="27">
@@ -6709,13 +6422,13 @@
         <v>0.78</v>
       </c>
       <c r="B27" t="n">
-        <v>680.77</v>
+        <v>1130.41</v>
       </c>
       <c r="C27" t="n">
         <v>0.007800000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>13.6154</v>
+        <v>22.6082</v>
       </c>
     </row>
     <row r="28">
@@ -6723,13 +6436,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B28" t="n">
-        <v>706.954</v>
+        <v>1173.88</v>
       </c>
       <c r="C28" t="n">
         <v>0.0081</v>
       </c>
       <c r="D28" t="n">
-        <v>14.13908</v>
+        <v>23.4776</v>
       </c>
     </row>
     <row r="29">
@@ -6737,13 +6450,13 @@
         <v>0.84</v>
       </c>
       <c r="B29" t="n">
-        <v>733.1369999999999</v>
+        <v>1217.36</v>
       </c>
       <c r="C29" t="n">
         <v>0.008399999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>14.66274</v>
+        <v>24.3472</v>
       </c>
     </row>
     <row r="30">
@@ -6751,13 +6464,13 @@
         <v>0.87</v>
       </c>
       <c r="B30" t="n">
-        <v>759.3200000000001</v>
+        <v>1260.84</v>
       </c>
       <c r="C30" t="n">
         <v>0.008699999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>15.1864</v>
+        <v>25.2168</v>
       </c>
     </row>
     <row r="31">
@@ -6765,13 +6478,13 @@
         <v>0.9</v>
       </c>
       <c r="B31" t="n">
-        <v>785.504</v>
+        <v>1304.32</v>
       </c>
       <c r="C31" t="n">
         <v>0.009000000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>15.71008</v>
+        <v>26.0864</v>
       </c>
     </row>
     <row r="32">
@@ -6779,13 +6492,13 @@
         <v>0.93</v>
       </c>
       <c r="B32" t="n">
-        <v>811.687</v>
+        <v>1347.79</v>
       </c>
       <c r="C32" t="n">
         <v>0.009299999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>16.23374</v>
+        <v>26.9558</v>
       </c>
     </row>
     <row r="33">
@@ -6793,13 +6506,13 @@
         <v>0.96</v>
       </c>
       <c r="B33" t="n">
-        <v>837.871</v>
+        <v>1391.27</v>
       </c>
       <c r="C33" t="n">
         <v>0.009599999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>16.75742</v>
+        <v>27.8254</v>
       </c>
     </row>
     <row r="34">
@@ -6807,13 +6520,13 @@
         <v>0.99</v>
       </c>
       <c r="B34" t="n">
-        <v>864.054</v>
+        <v>1434.75</v>
       </c>
       <c r="C34" t="n">
         <v>0.009899999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>17.28108</v>
+        <v>28.695</v>
       </c>
     </row>
     <row r="35">
@@ -6821,13 +6534,13 @@
         <v>1.02</v>
       </c>
       <c r="B35" t="n">
-        <v>890.2380000000001</v>
+        <v>1478.22</v>
       </c>
       <c r="C35" t="n">
         <v>0.0102</v>
       </c>
       <c r="D35" t="n">
-        <v>17.80476</v>
+        <v>29.5644</v>
       </c>
     </row>
     <row r="36">
@@ -6835,13 +6548,13 @@
         <v>1.05</v>
       </c>
       <c r="B36" t="n">
-        <v>916.421</v>
+        <v>1521.7</v>
       </c>
       <c r="C36" t="n">
         <v>0.0105</v>
       </c>
       <c r="D36" t="n">
-        <v>18.32842</v>
+        <v>30.434</v>
       </c>
     </row>
     <row r="37">
@@ -6849,13 +6562,13 @@
         <v>1.08</v>
       </c>
       <c r="B37" t="n">
-        <v>942.605</v>
+        <v>1565.18</v>
       </c>
       <c r="C37" t="n">
         <v>0.0108</v>
       </c>
       <c r="D37" t="n">
-        <v>18.8521</v>
+        <v>31.3036</v>
       </c>
     </row>
     <row r="38">
@@ -6863,13 +6576,13 @@
         <v>1.11</v>
       </c>
       <c r="B38" t="n">
-        <v>968.788</v>
+        <v>1608.66</v>
       </c>
       <c r="C38" t="n">
         <v>0.0111</v>
       </c>
       <c r="D38" t="n">
-        <v>19.37576</v>
+        <v>32.1732</v>
       </c>
     </row>
     <row r="39">
@@ -6877,13 +6590,13 @@
         <v>1.14</v>
       </c>
       <c r="B39" t="n">
-        <v>994.972</v>
+        <v>1652.13</v>
       </c>
       <c r="C39" t="n">
         <v>0.0114</v>
       </c>
       <c r="D39" t="n">
-        <v>19.89944</v>
+        <v>33.0426</v>
       </c>
     </row>
     <row r="40">
@@ -6891,13 +6604,13 @@
         <v>1.17</v>
       </c>
       <c r="B40" t="n">
-        <v>1021.16</v>
+        <v>1695.61</v>
       </c>
       <c r="C40" t="n">
         <v>0.0117</v>
       </c>
       <c r="D40" t="n">
-        <v>20.4232</v>
+        <v>33.9122</v>
       </c>
     </row>
     <row r="41">
@@ -6905,13 +6618,13 @@
         <v>1.2</v>
       </c>
       <c r="B41" t="n">
-        <v>1047.34</v>
+        <v>1739.09</v>
       </c>
       <c r="C41" t="n">
         <v>0.012</v>
       </c>
       <c r="D41" t="n">
-        <v>20.9468</v>
+        <v>34.7818</v>
       </c>
     </row>
     <row r="42">
@@ -6919,13 +6632,13 @@
         <v>1.23</v>
       </c>
       <c r="B42" t="n">
-        <v>1073.52</v>
+        <v>1782.56</v>
       </c>
       <c r="C42" t="n">
         <v>0.0123</v>
       </c>
       <c r="D42" t="n">
-        <v>21.4704</v>
+        <v>35.6512</v>
       </c>
     </row>
     <row r="43">
@@ -6933,13 +6646,13 @@
         <v>1.26</v>
       </c>
       <c r="B43" t="n">
-        <v>1099.71</v>
+        <v>1826.04</v>
       </c>
       <c r="C43" t="n">
         <v>0.0126</v>
       </c>
       <c r="D43" t="n">
-        <v>21.9942</v>
+        <v>36.5208</v>
       </c>
     </row>
     <row r="44">
@@ -6947,13 +6660,13 @@
         <v>1.29</v>
       </c>
       <c r="B44" t="n">
-        <v>1125.89</v>
+        <v>1869.52</v>
       </c>
       <c r="C44" t="n">
         <v>0.0129</v>
       </c>
       <c r="D44" t="n">
-        <v>22.5178</v>
+        <v>37.3904</v>
       </c>
     </row>
     <row r="45">
@@ -6961,13 +6674,13 @@
         <v>1.32</v>
       </c>
       <c r="B45" t="n">
-        <v>1152.07</v>
+        <v>1913</v>
       </c>
       <c r="C45" t="n">
         <v>0.0132</v>
       </c>
       <c r="D45" t="n">
-        <v>23.0414</v>
+        <v>38.26</v>
       </c>
     </row>
     <row r="46">
@@ -6975,13 +6688,13 @@
         <v>1.35</v>
       </c>
       <c r="B46" t="n">
-        <v>1178.26</v>
+        <v>1956.47</v>
       </c>
       <c r="C46" t="n">
         <v>0.0135</v>
       </c>
       <c r="D46" t="n">
-        <v>23.5652</v>
+        <v>39.1294</v>
       </c>
     </row>
     <row r="47">
@@ -6989,13 +6702,13 @@
         <v>1.38</v>
       </c>
       <c r="B47" t="n">
-        <v>1204.44</v>
+        <v>1999.95</v>
       </c>
       <c r="C47" t="n">
         <v>0.0138</v>
       </c>
       <c r="D47" t="n">
-        <v>24.0888</v>
+        <v>39.999</v>
       </c>
     </row>
     <row r="48">
@@ -7003,13 +6716,13 @@
         <v>1.41</v>
       </c>
       <c r="B48" t="n">
-        <v>1230.62</v>
+        <v>2043.43</v>
       </c>
       <c r="C48" t="n">
         <v>0.0141</v>
       </c>
       <c r="D48" t="n">
-        <v>24.6124</v>
+        <v>40.8686</v>
       </c>
     </row>
     <row r="49">
@@ -7017,13 +6730,13 @@
         <v>1.44</v>
       </c>
       <c r="B49" t="n">
-        <v>1256.81</v>
+        <v>2086.9</v>
       </c>
       <c r="C49" t="n">
         <v>0.0144</v>
       </c>
       <c r="D49" t="n">
-        <v>25.1362</v>
+        <v>41.738</v>
       </c>
     </row>
     <row r="50">
@@ -7031,13 +6744,13 @@
         <v>1.47</v>
       </c>
       <c r="B50" t="n">
-        <v>1282.99</v>
+        <v>2130.38</v>
       </c>
       <c r="C50" t="n">
         <v>0.0147</v>
       </c>
       <c r="D50" t="n">
-        <v>25.6598</v>
+        <v>42.60760000000001</v>
       </c>
     </row>
     <row r="51">
@@ -7045,13 +6758,13 @@
         <v>1.5</v>
       </c>
       <c r="B51" t="n">
-        <v>1309.17</v>
+        <v>2173.86</v>
       </c>
       <c r="C51" t="n">
         <v>0.015</v>
       </c>
       <c r="D51" t="n">
-        <v>26.1834</v>
+        <v>43.4772</v>
       </c>
     </row>
     <row r="52">
@@ -7059,13 +6772,13 @@
         <v>1.53</v>
       </c>
       <c r="B52" t="n">
-        <v>1335.36</v>
+        <v>2217.34</v>
       </c>
       <c r="C52" t="n">
         <v>0.0153</v>
       </c>
       <c r="D52" t="n">
-        <v>26.7072</v>
+        <v>44.3468</v>
       </c>
     </row>
     <row r="53">
@@ -7073,13 +6786,13 @@
         <v>1.56</v>
       </c>
       <c r="B53" t="n">
-        <v>1361.54</v>
+        <v>2260.81</v>
       </c>
       <c r="C53" t="n">
         <v>0.0156</v>
       </c>
       <c r="D53" t="n">
-        <v>27.2308</v>
+        <v>45.2162</v>
       </c>
     </row>
     <row r="54">
@@ -7087,13 +6800,13 @@
         <v>1.59</v>
       </c>
       <c r="B54" t="n">
-        <v>1387.72</v>
+        <v>2304.29</v>
       </c>
       <c r="C54" t="n">
         <v>0.0159</v>
       </c>
       <c r="D54" t="n">
-        <v>27.7544</v>
+        <v>46.0858</v>
       </c>
     </row>
     <row r="55">
@@ -7101,13 +6814,13 @@
         <v>1.62</v>
       </c>
       <c r="B55" t="n">
-        <v>1413.87</v>
+        <v>2347.69</v>
       </c>
       <c r="C55" t="n">
         <v>0.0162</v>
       </c>
       <c r="D55" t="n">
-        <v>28.2774</v>
+        <v>46.9538</v>
       </c>
     </row>
     <row r="56">
@@ -7115,13 +6828,13 @@
         <v>1.65</v>
       </c>
       <c r="B56" t="n">
-        <v>1439.66</v>
+        <v>2390.05</v>
       </c>
       <c r="C56" t="n">
         <v>0.0165</v>
       </c>
       <c r="D56" t="n">
-        <v>28.7932</v>
+        <v>47.801</v>
       </c>
     </row>
     <row r="57">
@@ -7129,13 +6842,13 @@
         <v>1.68</v>
       </c>
       <c r="B57" t="n">
-        <v>1463.43</v>
+        <v>2427.8</v>
       </c>
       <c r="C57" t="n">
         <v>0.0168</v>
       </c>
       <c r="D57" t="n">
-        <v>29.2686</v>
+        <v>48.556</v>
       </c>
     </row>
     <row r="58">
@@ -7143,13 +6856,13 @@
         <v>1.71</v>
       </c>
       <c r="B58" t="n">
-        <v>918.937</v>
+        <v>2443.43</v>
       </c>
       <c r="C58" t="n">
         <v>0.0171</v>
       </c>
       <c r="D58" t="n">
-        <v>18.37874</v>
+        <v>48.86859999999999</v>
       </c>
     </row>
     <row r="59">
@@ -7157,13 +6870,13 @@
         <v>1.74</v>
       </c>
       <c r="B59" t="n">
-        <v>781.671</v>
+        <v>2050.26</v>
       </c>
       <c r="C59" t="n">
         <v>0.0174</v>
       </c>
       <c r="D59" t="n">
-        <v>15.63342</v>
+        <v>41.0052</v>
       </c>
     </row>
     <row r="60">
@@ -7171,13 +6884,13 @@
         <v>1.77</v>
       </c>
       <c r="B60" t="n">
-        <v>507.292</v>
+        <v>646.3819999999999</v>
       </c>
       <c r="C60" t="n">
         <v>0.0177</v>
       </c>
       <c r="D60" t="n">
-        <v>10.14584</v>
+        <v>12.92764</v>
       </c>
     </row>
     <row r="61">
@@ -7185,13 +6898,13 @@
         <v>1.8</v>
       </c>
       <c r="B61" t="n">
-        <v>199.882</v>
+        <v>5.79884</v>
       </c>
       <c r="C61" t="n">
         <v>0.018</v>
       </c>
       <c r="D61" t="n">
-        <v>3.99764</v>
+        <v>0.1159768</v>
       </c>
     </row>
     <row r="62">
@@ -7199,13 +6912,13 @@
         <v>1.83</v>
       </c>
       <c r="B62" t="n">
-        <v>91.8942</v>
+        <v>1.23924</v>
       </c>
       <c r="C62" t="n">
         <v>0.0183</v>
       </c>
       <c r="D62" t="n">
-        <v>1.837884</v>
+        <v>0.0247848</v>
       </c>
     </row>
     <row r="63">
@@ -7213,13 +6926,13 @@
         <v>1.86</v>
       </c>
       <c r="B63" t="n">
-        <v>42.2491</v>
+        <v>1.09174</v>
       </c>
       <c r="C63" t="n">
         <v>0.0186</v>
       </c>
       <c r="D63" t="n">
-        <v>0.844982</v>
+        <v>0.0218348</v>
       </c>
     </row>
     <row r="64">
@@ -7227,13 +6940,13 @@
         <v>1.89</v>
       </c>
       <c r="B64" t="n">
-        <v>13.9951</v>
+        <v>1.08642</v>
       </c>
       <c r="C64" t="n">
         <v>0.0189</v>
       </c>
       <c r="D64" t="n">
-        <v>0.279902</v>
+        <v>0.0217284</v>
       </c>
     </row>
     <row r="65">
@@ -7241,13 +6954,13 @@
         <v>1.92</v>
       </c>
       <c r="B65" t="n">
-        <v>8.63022</v>
+        <v>1.10087</v>
       </c>
       <c r="C65" t="n">
         <v>0.0192</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1726044</v>
+        <v>0.0220174</v>
       </c>
     </row>
     <row r="66">
@@ -7255,13 +6968,13 @@
         <v>1.95</v>
       </c>
       <c r="B66" t="n">
-        <v>5.43213</v>
+        <v>1.11807</v>
       </c>
       <c r="C66" t="n">
         <v>0.0195</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1086426</v>
+        <v>0.0223614</v>
       </c>
     </row>
     <row r="67">
@@ -7269,13 +6982,13 @@
         <v>1.98</v>
       </c>
       <c r="B67" t="n">
-        <v>4.96118</v>
+        <v>1.13527</v>
       </c>
       <c r="C67" t="n">
         <v>0.0198</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0992236</v>
+        <v>0.0227054</v>
       </c>
     </row>
     <row r="68">
@@ -7283,13 +6996,13 @@
         <v>2.01</v>
       </c>
       <c r="B68" t="n">
-        <v>5.01248</v>
+        <v>1.15247</v>
       </c>
       <c r="C68" t="n">
         <v>0.0201</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1002496</v>
+        <v>0.0230494</v>
       </c>
     </row>
     <row r="69">
@@ -7297,13 +7010,13 @@
         <v>2.04</v>
       </c>
       <c r="B69" t="n">
-        <v>5.08631</v>
+        <v>1.16288</v>
       </c>
       <c r="C69" t="n">
         <v>0.0204</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1017262</v>
+        <v>0.0232576</v>
       </c>
     </row>
     <row r="70">
@@ -7311,13 +7024,13 @@
         <v>2.07</v>
       </c>
       <c r="B70" t="n">
-        <v>5.15293</v>
+        <v>1.17998</v>
       </c>
       <c r="C70" t="n">
         <v>0.0207</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1030586</v>
+        <v>0.0235996</v>
       </c>
     </row>
     <row r="71">
@@ -7325,13 +7038,13 @@
         <v>2.1</v>
       </c>
       <c r="B71" t="n">
-        <v>5.22761</v>
+        <v>1.19708</v>
       </c>
       <c r="C71" t="n">
         <v>0.021</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1045522</v>
+        <v>0.0239416</v>
       </c>
     </row>
     <row r="72">
@@ -7339,13 +7052,13 @@
         <v>2.13</v>
       </c>
       <c r="B72" t="n">
-        <v>5.30213</v>
+        <v>1.21419</v>
       </c>
       <c r="C72" t="n">
         <v>0.0213</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1060426</v>
+        <v>0.0242838</v>
       </c>
     </row>
     <row r="73">
@@ -7353,13 +7066,13 @@
         <v>2.16</v>
       </c>
       <c r="B73" t="n">
-        <v>5.37663</v>
+        <v>1.23129</v>
       </c>
       <c r="C73" t="n">
         <v>0.0216</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1075326</v>
+        <v>0.0246258</v>
       </c>
     </row>
     <row r="74">
@@ -7367,13 +7080,13 @@
         <v>2.19</v>
       </c>
       <c r="B74" t="n">
-        <v>5.4513</v>
+        <v>1.24839</v>
       </c>
       <c r="C74" t="n">
         <v>0.0219</v>
       </c>
       <c r="D74" t="n">
-        <v>0.109026</v>
+        <v>0.0249678</v>
       </c>
     </row>
     <row r="75">
@@ -7381,13 +7094,13 @@
         <v>2.22</v>
       </c>
       <c r="B75" t="n">
-        <v>5.52598</v>
+        <v>1.26549</v>
       </c>
       <c r="C75" t="n">
         <v>0.0222</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1105196</v>
+        <v>0.0253098</v>
       </c>
     </row>
     <row r="76">
@@ -7395,13 +7108,13 @@
         <v>2.25</v>
       </c>
       <c r="B76" t="n">
-        <v>5.60066</v>
+        <v>1.28259</v>
       </c>
       <c r="C76" t="n">
         <v>0.0225</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1120132</v>
+        <v>0.0256518</v>
       </c>
     </row>
     <row r="77">
@@ -7409,13 +7122,13 @@
         <v>2.28</v>
       </c>
       <c r="B77" t="n">
-        <v>5.67533</v>
+        <v>1.29752</v>
       </c>
       <c r="C77" t="n">
         <v>0.0228</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1135066</v>
+        <v>0.0259504</v>
       </c>
     </row>
     <row r="78">
@@ -7423,13 +7136,13 @@
         <v>2.31</v>
       </c>
       <c r="B78" t="n">
-        <v>5.75001</v>
+        <v>1.31408</v>
       </c>
       <c r="C78" t="n">
         <v>0.0231</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1150002</v>
+        <v>0.0262816</v>
       </c>
     </row>
     <row r="79">
@@ -7437,13 +7150,13 @@
         <v>2.34</v>
       </c>
       <c r="B79" t="n">
-        <v>5.77119</v>
+        <v>1.33115</v>
       </c>
       <c r="C79" t="n">
         <v>0.0234</v>
       </c>
       <c r="D79" t="n">
-        <v>0.1154238</v>
+        <v>0.026623</v>
       </c>
     </row>
     <row r="80">
@@ -7451,13 +7164,13 @@
         <v>2.37</v>
       </c>
       <c r="B80" t="n">
-        <v>5.84432</v>
+        <v>1.34808</v>
       </c>
       <c r="C80" t="n">
         <v>0.0237</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1168864</v>
+        <v>0.0269616</v>
       </c>
     </row>
     <row r="81">
@@ -7465,13 +7178,13 @@
         <v>2.4</v>
       </c>
       <c r="B81" t="n">
-        <v>5.90726</v>
+        <v>1.36514</v>
       </c>
       <c r="C81" t="n">
         <v>0.024</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1181452</v>
+        <v>0.0273028</v>
       </c>
     </row>
     <row r="82">
@@ -7479,13 +7192,13 @@
         <v>2.43</v>
       </c>
       <c r="B82" t="n">
-        <v>5.97423</v>
+        <v>1.38221</v>
       </c>
       <c r="C82" t="n">
         <v>0.0243</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1194846</v>
+        <v>0.0276442</v>
       </c>
     </row>
     <row r="83">
@@ -7493,13 +7206,13 @@
         <v>2.46</v>
       </c>
       <c r="B83" t="n">
-        <v>6.04799</v>
+        <v>1.39927</v>
       </c>
       <c r="C83" t="n">
         <v>0.0246</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1209598</v>
+        <v>0.0279854</v>
       </c>
     </row>
     <row r="84">
@@ -7507,13 +7220,13 @@
         <v>2.49</v>
       </c>
       <c r="B84" t="n">
-        <v>6.12174</v>
+        <v>1.4052</v>
       </c>
       <c r="C84" t="n">
         <v>0.0249</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1224348</v>
+        <v>0.028104</v>
       </c>
     </row>
     <row r="85">
@@ -7521,13 +7234,13 @@
         <v>2.52</v>
       </c>
       <c r="B85" t="n">
-        <v>6.1955</v>
+        <v>1.42213</v>
       </c>
       <c r="C85" t="n">
         <v>0.0252</v>
       </c>
       <c r="D85" t="n">
-        <v>0.12391</v>
+        <v>0.0284426</v>
       </c>
     </row>
     <row r="86">
@@ -7535,13 +7248,13 @@
         <v>2.55</v>
       </c>
       <c r="B86" t="n">
-        <v>6.26926</v>
+        <v>1.43906</v>
       </c>
       <c r="C86" t="n">
         <v>0.02549999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1253852</v>
+        <v>0.0287812</v>
       </c>
     </row>
     <row r="87">
@@ -7549,13 +7262,13 @@
         <v>2.58</v>
       </c>
       <c r="B87" t="n">
-        <v>6.33673</v>
+        <v>1.45599</v>
       </c>
       <c r="C87" t="n">
         <v>0.0258</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1267346</v>
+        <v>0.0291198</v>
       </c>
     </row>
     <row r="88">
@@ -7563,13 +7276,13 @@
         <v>2.61</v>
       </c>
       <c r="B88" t="n">
-        <v>6.38585</v>
+        <v>1.47292</v>
       </c>
       <c r="C88" t="n">
         <v>0.0261</v>
       </c>
       <c r="D88" t="n">
-        <v>0.127717</v>
+        <v>0.0294584</v>
       </c>
     </row>
     <row r="89">
@@ -7577,13 +7290,13 @@
         <v>2.64</v>
       </c>
       <c r="B89" t="n">
-        <v>6.45211</v>
+        <v>1.48962</v>
       </c>
       <c r="C89" t="n">
         <v>0.0264</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1290422</v>
+        <v>0.0297924</v>
       </c>
     </row>
     <row r="90">
@@ -7591,13 +7304,13 @@
         <v>2.67</v>
       </c>
       <c r="B90" t="n">
-        <v>6.52543</v>
+        <v>1.50654</v>
       </c>
       <c r="C90" t="n">
         <v>0.0267</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1305086</v>
+        <v>0.0301308</v>
       </c>
     </row>
     <row r="91">
@@ -7605,13 +7318,13 @@
         <v>2.7</v>
       </c>
       <c r="B91" t="n">
-        <v>6.5943</v>
+        <v>1.52347</v>
       </c>
       <c r="C91" t="n">
         <v>0.027</v>
       </c>
       <c r="D91" t="n">
-        <v>0.131886</v>
+        <v>0.0304694</v>
       </c>
     </row>
     <row r="92">
@@ -7619,13 +7332,13 @@
         <v>2.73</v>
       </c>
       <c r="B92" t="n">
-        <v>6.66711</v>
+        <v>1.5404</v>
       </c>
       <c r="C92" t="n">
         <v>0.0273</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1333422</v>
+        <v>0.030808</v>
       </c>
     </row>
     <row r="93">
@@ -7633,13 +7346,13 @@
         <v>2.76</v>
       </c>
       <c r="B93" t="n">
-        <v>6.74038</v>
+        <v>1.55732</v>
       </c>
       <c r="C93" t="n">
         <v>0.0276</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1348076</v>
+        <v>0.0311464</v>
       </c>
     </row>
     <row r="94">
@@ -7647,13 +7360,13 @@
         <v>2.79</v>
       </c>
       <c r="B94" t="n">
-        <v>6.81358</v>
+        <v>1.57409</v>
       </c>
       <c r="C94" t="n">
         <v>0.0279</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1362716</v>
+        <v>0.0314818</v>
       </c>
     </row>
     <row r="95">
@@ -7661,13 +7374,13 @@
         <v>2.82</v>
       </c>
       <c r="B95" t="n">
-        <v>6.8868</v>
+        <v>1.59101</v>
       </c>
       <c r="C95" t="n">
         <v>0.0282</v>
       </c>
       <c r="D95" t="n">
-        <v>0.137736</v>
+        <v>0.0318202</v>
       </c>
     </row>
     <row r="96">
@@ -7675,13 +7388,13 @@
         <v>2.85</v>
       </c>
       <c r="B96" t="n">
-        <v>6.96006</v>
+        <v>1.6074</v>
       </c>
       <c r="C96" t="n">
         <v>0.0285</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1392012</v>
+        <v>0.032148</v>
       </c>
     </row>
     <row r="97">
@@ -7689,13 +7402,13 @@
         <v>2.88</v>
       </c>
       <c r="B97" t="n">
-        <v>7.03332</v>
+        <v>1.62411</v>
       </c>
       <c r="C97" t="n">
         <v>0.0288</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1406664</v>
+        <v>0.0324822</v>
       </c>
     </row>
     <row r="98">
@@ -7703,13 +7416,13 @@
         <v>2.91</v>
       </c>
       <c r="B98" t="n">
-        <v>7.09903</v>
+        <v>1.64067</v>
       </c>
       <c r="C98" t="n">
         <v>0.0291</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1419806</v>
+        <v>0.0328134</v>
       </c>
     </row>
     <row r="99">
@@ -7717,13 +7430,13 @@
         <v>2.94</v>
       </c>
       <c r="B99" t="n">
-        <v>7.16952</v>
+        <v>1.65758</v>
       </c>
       <c r="C99" t="n">
         <v>0.0294</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1433904</v>
+        <v>0.0331516</v>
       </c>
     </row>
     <row r="100">
@@ -7731,13 +7444,13 @@
         <v>2.97</v>
       </c>
       <c r="B100" t="n">
-        <v>7.24132</v>
+        <v>1.67419</v>
       </c>
       <c r="C100" t="n">
         <v>0.0297</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1448264</v>
+        <v>0.0334838</v>
       </c>
     </row>
     <row r="101">
@@ -7745,1476 +7458,13 @@
         <v>3</v>
       </c>
       <c r="B101" t="n">
-        <v>7.31268</v>
+        <v>1.6911</v>
       </c>
       <c r="C101" t="n">
         <v>0.03</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1462536</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>TIME</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>FX</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>strain</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>stress</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>6\cfrp1\danmen=50\cf_tensile=970\6_c1_dan50_cft970.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="B2" t="n">
-        <v>26.1835</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.52367</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>最大応力</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>29.3424</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="B3" t="n">
-        <v>52.3669</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.047338</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>ヤング率</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1745.563888888889</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="B4" t="n">
-        <v>78.5504</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0008999999999999999</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.571008</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="B5" t="n">
-        <v>104.734</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.09468</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="B6" t="n">
-        <v>130.917</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.61834</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="B7" t="n">
-        <v>157.101</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0018</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.14202</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="B8" t="n">
-        <v>183.284</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.66568</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="B9" t="n">
-        <v>209.468</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0024</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4.18936</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="B10" t="n">
-        <v>235.651</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0027</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4.71302</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>261.835</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5.2367</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="B12" t="n">
-        <v>288.018</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0033</v>
-      </c>
-      <c r="D12" t="n">
-        <v>5.760359999999999</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="B13" t="n">
-        <v>314.202</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.003599999999999999</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6.28404</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="B14" t="n">
-        <v>340.385</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0039</v>
-      </c>
-      <c r="D14" t="n">
-        <v>6.8077</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="B15" t="n">
-        <v>366.568</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="D15" t="n">
-        <v>7.33136</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="B16" t="n">
-        <v>392.752</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.004500000000000001</v>
-      </c>
-      <c r="D16" t="n">
-        <v>7.85504</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="B17" t="n">
-        <v>418.935</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0048</v>
-      </c>
-      <c r="D17" t="n">
-        <v>8.3787</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="B18" t="n">
-        <v>445.119</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0051</v>
-      </c>
-      <c r="D18" t="n">
-        <v>8.902380000000001</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="B19" t="n">
-        <v>471.302</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.005399999999999999</v>
-      </c>
-      <c r="D19" t="n">
-        <v>9.42604</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="B20" t="n">
-        <v>497.486</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.005699999999999999</v>
-      </c>
-      <c r="D20" t="n">
-        <v>9.949719999999999</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="B21" t="n">
-        <v>523.669</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.005999999999999999</v>
-      </c>
-      <c r="D21" t="n">
-        <v>10.47338</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="B22" t="n">
-        <v>549.853</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="D22" t="n">
-        <v>10.99706</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="B23" t="n">
-        <v>576.0359999999999</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0066</v>
-      </c>
-      <c r="D23" t="n">
-        <v>11.52072</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="B24" t="n">
-        <v>602.22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.006899999999999999</v>
-      </c>
-      <c r="D24" t="n">
-        <v>12.0444</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="B25" t="n">
-        <v>628.403</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.007199999999999999</v>
-      </c>
-      <c r="D25" t="n">
-        <v>12.56806</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="B26" t="n">
-        <v>654.587</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.0075</v>
-      </c>
-      <c r="D26" t="n">
-        <v>13.09174</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="B27" t="n">
-        <v>680.77</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.007800000000000001</v>
-      </c>
-      <c r="D27" t="n">
-        <v>13.6154</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="B28" t="n">
-        <v>706.954</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.0081</v>
-      </c>
-      <c r="D28" t="n">
-        <v>14.13908</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="B29" t="n">
-        <v>733.1369999999999</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.008399999999999999</v>
-      </c>
-      <c r="D29" t="n">
-        <v>14.66274</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="B30" t="n">
-        <v>759.3200000000001</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.008699999999999999</v>
-      </c>
-      <c r="D30" t="n">
-        <v>15.1864</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="B31" t="n">
-        <v>785.504</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.009000000000000001</v>
-      </c>
-      <c r="D31" t="n">
-        <v>15.71008</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="B32" t="n">
-        <v>811.687</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.009299999999999999</v>
-      </c>
-      <c r="D32" t="n">
-        <v>16.23374</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="B33" t="n">
-        <v>837.871</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.009599999999999999</v>
-      </c>
-      <c r="D33" t="n">
-        <v>16.75742</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="B34" t="n">
-        <v>864.054</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.009899999999999999</v>
-      </c>
-      <c r="D34" t="n">
-        <v>17.28108</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="B35" t="n">
-        <v>890.2380000000001</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.0102</v>
-      </c>
-      <c r="D35" t="n">
-        <v>17.80476</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="B36" t="n">
-        <v>916.421</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.0105</v>
-      </c>
-      <c r="D36" t="n">
-        <v>18.32842</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="B37" t="n">
-        <v>942.605</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.0108</v>
-      </c>
-      <c r="D37" t="n">
-        <v>18.8521</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="B38" t="n">
-        <v>968.788</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.0111</v>
-      </c>
-      <c r="D38" t="n">
-        <v>19.37576</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="B39" t="n">
-        <v>994.972</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.0114</v>
-      </c>
-      <c r="D39" t="n">
-        <v>19.89944</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1021.16</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.0117</v>
-      </c>
-      <c r="D40" t="n">
-        <v>20.4232</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1047.34</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="D41" t="n">
-        <v>20.9468</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1073.52</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.0123</v>
-      </c>
-      <c r="D42" t="n">
-        <v>21.4704</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="B43" t="n">
-        <v>1099.71</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.0126</v>
-      </c>
-      <c r="D43" t="n">
-        <v>21.9942</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1125.89</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.0129</v>
-      </c>
-      <c r="D44" t="n">
-        <v>22.5178</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1152.07</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.0132</v>
-      </c>
-      <c r="D45" t="n">
-        <v>23.0414</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1178.26</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.0135</v>
-      </c>
-      <c r="D46" t="n">
-        <v>23.5652</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1204.44</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.0138</v>
-      </c>
-      <c r="D47" t="n">
-        <v>24.0888</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1230.62</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.0141</v>
-      </c>
-      <c r="D48" t="n">
-        <v>24.6124</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1256.81</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.0144</v>
-      </c>
-      <c r="D49" t="n">
-        <v>25.1362</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1282.99</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.0147</v>
-      </c>
-      <c r="D50" t="n">
-        <v>25.6598</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="B51" t="n">
-        <v>1309.17</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="D51" t="n">
-        <v>26.1834</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="B52" t="n">
-        <v>1335.36</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.0153</v>
-      </c>
-      <c r="D52" t="n">
-        <v>26.7072</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="B53" t="n">
-        <v>1361.54</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.0156</v>
-      </c>
-      <c r="D53" t="n">
-        <v>27.2308</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="B54" t="n">
-        <v>1387.72</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.0159</v>
-      </c>
-      <c r="D54" t="n">
-        <v>27.7544</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="B55" t="n">
-        <v>1413.87</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.0162</v>
-      </c>
-      <c r="D55" t="n">
-        <v>28.2774</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="B56" t="n">
-        <v>1439.66</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.0165</v>
-      </c>
-      <c r="D56" t="n">
-        <v>28.7932</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="B57" t="n">
-        <v>1463.43</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.0168</v>
-      </c>
-      <c r="D57" t="n">
-        <v>29.2686</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="B58" t="n">
-        <v>1467.12</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.0171</v>
-      </c>
-      <c r="D58" t="n">
-        <v>29.3424</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="B59" t="n">
-        <v>1091.18</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.0174</v>
-      </c>
-      <c r="D59" t="n">
-        <v>21.8236</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="B60" t="n">
-        <v>394.009</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.0177</v>
-      </c>
-      <c r="D60" t="n">
-        <v>7.88018</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="B61" t="n">
-        <v>180.624</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3.61248</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="B62" t="n">
-        <v>123.467</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.0183</v>
-      </c>
-      <c r="D62" t="n">
-        <v>2.46934</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="B63" t="n">
-        <v>63.1729</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.0186</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1.263458</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="B64" t="n">
-        <v>13.911</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.0189</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.27822</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="B65" t="n">
-        <v>8.1988</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.0192</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.163976</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="B66" t="n">
-        <v>4.9488</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.0195</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.09897600000000001</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="B67" t="n">
-        <v>4.70768</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.0198</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.0941536</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="B68" t="n">
-        <v>4.72058</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.0201</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.0944116</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="B69" t="n">
-        <v>4.77642</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.0204</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.0955284</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="B70" t="n">
-        <v>4.84657</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.0207</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.0969314</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="B71" t="n">
-        <v>4.91639</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.09832779999999999</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="B72" t="n">
-        <v>4.98663</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.0213</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.0997326</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="B73" t="n">
-        <v>5.05686</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.0216</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.1011372</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="B74" t="n">
-        <v>5.12709</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.0219</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.1025418</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="B75" t="n">
-        <v>5.19034</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.0222</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.1038068</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="B76" t="n">
-        <v>5.17742</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.0225</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.1035484</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="B77" t="n">
-        <v>5.24399</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.0228</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.1048798</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="B78" t="n">
-        <v>5.31299</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.0231</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.1062598</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="B79" t="n">
-        <v>5.37944</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.0234</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.1075888</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="B80" t="n">
-        <v>5.44811</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.0237</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.1089622</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="B81" t="n">
-        <v>5.3954</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.107908</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="B82" t="n">
-        <v>5.22181</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.0243</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.1044362</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="B83" t="n">
-        <v>5.16837</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.0246</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.1033674</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="B84" t="n">
-        <v>5.12723</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.0249</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.1025446</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="B85" t="n">
-        <v>5.15277</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.0252</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.1030554</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="B86" t="n">
-        <v>5.19806</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.02549999999999999</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.1039612</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="B87" t="n">
-        <v>5.25876</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.0258</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.1051752</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="B88" t="n">
-        <v>5.31967</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.0261</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.1063934</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="B89" t="n">
-        <v>5.37734</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.0264</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.1075468</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="B90" t="n">
-        <v>5.43796</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.0267</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.1087592</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="B91" t="n">
-        <v>5.49906</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.1099812</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="B92" t="n">
-        <v>5.55998</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.0273</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.1111996</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="B93" t="n">
-        <v>5.61983</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.0276</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.1123966</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="B94" t="n">
-        <v>5.68089</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.0279</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.1136178</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="B95" t="n">
-        <v>5.73999</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.0282</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.1147998</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="B96" t="n">
-        <v>5.79816</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.0285</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.1159632</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="B97" t="n">
-        <v>5.85798</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.0288</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.1171596</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="B98" t="n">
-        <v>5.91788</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.0291</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.1183576</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="B99" t="n">
-        <v>5.97755</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.0294</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.119551</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="B100" t="n">
-        <v>6.03854</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.0297</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.1207708</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>3</v>
-      </c>
-      <c r="B101" t="n">
-        <v>6.09947</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.1219894</v>
+        <v>0.033822</v>
       </c>
     </row>
   </sheetData>
